--- a/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
+++ b/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\몬스터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997DD8C-7092-4FAA-AC69-E970FEA91C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304080F8-9FDB-483C-BE74-8CA3837B1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="23595" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="11" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,292 +118,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Attack Power Increase</t>
+  </si>
+  <si>
+    <t>Attack Speed Increase</t>
+  </si>
+  <si>
     <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속 시간 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기 범위 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 개수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득 범위 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack Power Increase</t>
-  </si>
-  <si>
-    <t>Attack Speed Increase</t>
-  </si>
-  <si>
-    <t>공격력 증가</t>
   </si>
   <si>
     <t>공격속도증가</t>
   </si>
   <si>
     <t>사용 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 획득량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp 획득량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp가 5초당 3% 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp가 5초당 4% 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp가 5초당 5% 회복한다.</t>
-  </si>
-  <si>
-    <t>Hp가 5초당 6% 회복한다.</t>
-  </si>
-  <si>
-    <t>Hp가 5초당 7% 회복한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 모든 골드의 총합 + 10% 만큼 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 모든 골드의 총합 + 20% 만큼 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 모든 골드의 총합 + 30% 만큼 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 모든 골드의 총합 + 40% 만큼 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 모든 골드의 총합 + 50% 만큼 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 경험치가 16%만큼 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 경험치가 8%만큼 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 경험치가 24%만큼 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 경험치가 32%만큼 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 획득한 경험치가 40%만큼 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 모든 아이템을 획득하는 + 10%범위가 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 모든 아이템을 획득하는 + 20%범위가 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 모든 아이템을 획득하는 + 30%범위가 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 모든 아이템을 획득하는 + 40%범위가 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 모든 아이템을 획득하는 + 50%범위가 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 몬스터에게 받는 모든 + 5%피해가 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 몬스터에게 받는 모든 + 10%피해가 감소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 몬스터에게 받는 모든 + 15%피해가 감소한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 몬스터에게 받는 모든 + 20%피해가 감소한다.</t>
-  </si>
-  <si>
-    <t>캐릭터가 몬스터에게 받는 모든 + 25%피해가 감소한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 최대체력이 + 10%증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 최대체력이 + 20%증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 최대체력이 + 30%증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 최대체력이 + 40%증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 최대체력이 + 50%증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격력이 + 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 공격력이 + 20% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 공격력이 + 30% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격력이 + 40% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격력이 + 50% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도가 + 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도가 + 20% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도가 + 30% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도가 + 40% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 공격속도가 + 50% 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 이동 + 10% 속도가 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 이동 + 20% 속도가 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 이동 + 30% 속도가 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 이동 + 40% 속도가 증가한다.</t>
-  </si>
-  <si>
-    <t>캐릭터의 이동 + 50% 속도가 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 지속시간이 + 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 지속시간이 + 20% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 지속시간이 + 30% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 지속시간이 + 40% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 지속시간이 + 50% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 범위가 + 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 범위가 + 20% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 스킬의 범위가 + 30% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 범위가 + 40% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 스킬의 범위가 + 50% 증가한다.</t>
-  </si>
-  <si>
-    <t>투사체를 가진 스킬들의 투사체 속도가 + 10% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 가진 스킬들의 투사체 속도가 + 20% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 가진 스킬들의 투사체 속도가 + 30% 증가한다.</t>
-  </si>
-  <si>
-    <t>투사체를 가진 스킬들의 투사체 속도가 + 40% 증가한다.</t>
-  </si>
-  <si>
-    <t>투사체를 가진 스킬들의 투사체 속도가 + 50% 증가한다.</t>
-  </si>
-  <si>
-    <t>모든 무기의 투사체가 3개 증가한다. (장판 무기 제외)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 무기의 투사체가 1개 증가한다. (장판 무기 제외)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 무기의 투사체가 2개 증가한다. (장판 무기 제외)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관통 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,6 +163,128 @@
   <si>
     <t>테이블
 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 필요한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간별 생성 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 드롭테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름 스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지, 드롭 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭3</t>
+  </si>
+  <si>
+    <t>드롭4</t>
+  </si>
+  <si>
+    <t>드롭5</t>
+  </si>
+  <si>
+    <t>드롭6</t>
+  </si>
+  <si>
+    <t>드롭7</t>
+  </si>
+  <si>
+    <t>드롭8</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
-  <dimension ref="A1:U118"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D36:D37"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1294,6 +1143,9 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
@@ -1301,6 +1153,12 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
@@ -1308,6 +1166,12 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
@@ -1315,6 +1179,12 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -1322,6 +1192,12 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -1329,6 +1205,12 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
@@ -1336,12 +1218,18 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="M14" s="1"/>
     </row>
@@ -1350,13 +1238,19 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
@@ -1364,6 +1258,9 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
@@ -1371,6 +1268,12 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -1378,94 +1281,232 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="F31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1"/>
       <c r="M49" s="1"/>
@@ -1515,78 +1556,46 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="1"/>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="1"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="1"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+    <row r="69" spans="1:13">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:13">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -1594,313 +1603,193 @@
       <c r="E70" s="33"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="38"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+    <row r="71" spans="1:13">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="38"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+    <row r="72" spans="1:13">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="38"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
+    <row r="73" spans="1:13">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="38"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+    <row r="74" spans="1:13">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
+    <row r="75" spans="1:13">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:13">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="20.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
+    <row r="77" spans="1:13">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="37"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
+    <row r="78" spans="1:13">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="37"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="37"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
+    <row r="79" spans="1:13">
+      <c r="A79" s="38"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="38"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="37"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="41"/>
-      <c r="R81" s="41"/>
-      <c r="S81" s="41"/>
-      <c r="T81" s="41"/>
-      <c r="U81" s="41"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="37"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="37"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="37"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-    </row>
-    <row r="85" spans="1:21">
-      <c r="A85" s="37"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
+      <c r="A84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:21" ht="20.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="37"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="37"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="37"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="41"/>
@@ -1920,10 +1809,10 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="37"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
@@ -1943,10 +1832,10 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="37"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -1966,9 +1855,10 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="37"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
@@ -1988,10 +1878,10 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="37"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
@@ -2011,10 +1901,10 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="37"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
@@ -2034,10 +1924,10 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="37"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="50"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
@@ -2101,8 +1991,8 @@
       <c r="T96" s="41"/>
       <c r="U96" s="41"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="41"/>
+    <row r="97" spans="1:21">
+      <c r="A97" s="37"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
       <c r="D97" s="41"/>
@@ -2122,91 +2012,292 @@
       <c r="R97" s="41"/>
       <c r="S97" s="41"/>
       <c r="T97" s="41"/>
-    </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="1"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="1"/>
-      <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="1"/>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="U97" s="41"/>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="37"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="37"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="37"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="41"/>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="37"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="37"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
+      <c r="T102" s="41"/>
+      <c r="U102" s="41"/>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="37"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+      <c r="S103" s="41"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104" s="37"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
+      <c r="M104" s="41"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="41"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="41"/>
+      <c r="N105" s="41"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="41"/>
+      <c r="S105" s="41"/>
+      <c r="T105" s="41"/>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:21">
       <c r="A108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:21">
       <c r="A109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:21">
       <c r="A110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:21">
       <c r="A111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:21">
       <c r="A112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2236,7 +2327,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2258,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -2267,10 +2358,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -2288,15 +2379,15 @@
     <row r="2" spans="1:14" s="26" customFormat="1" ht="16.5">
       <c r="A2" s="24"/>
       <c r="B2" s="58" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>3</v>
@@ -2314,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>1</v>
@@ -2323,13 +2414,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>2</v>
@@ -2343,28 +2434,28 @@
     </row>
     <row r="4" spans="1:14" s="52" customFormat="1" ht="16.5">
       <c r="A4" s="19" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
@@ -2709,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F69EF-F857-4FC3-8F5A-DC82EE320A84}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="A3:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2726,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>9</v>
@@ -2734,1231 +2825,383 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
-      <c r="A3">
-        <v>60000</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="17.25">
-      <c r="A4">
-        <v>60001</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="17.25">
-      <c r="A5">
-        <v>60002</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="17.25">
-      <c r="A6">
-        <v>60003</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="17.25">
-      <c r="A7">
-        <v>60004</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="17.25">
-      <c r="A8">
-        <v>60005</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="17.25">
-      <c r="A9">
-        <v>60006</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="17.25">
-      <c r="A10">
-        <v>60007</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="17.25">
-      <c r="A11">
-        <v>60008</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="17.25">
-      <c r="A12">
-        <v>60009</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="17.25">
-      <c r="A13">
-        <v>60010</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="17.25">
-      <c r="A14">
-        <v>60011</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="17.25">
-      <c r="A15">
-        <v>60012</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>28</v>
-      </c>
+      <c r="C15" s="28"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="17.25">
-      <c r="A16">
-        <v>60013</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="C16" s="28"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>70000</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>70001</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>70002</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>70003</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>70004</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>70005</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>70006</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>70007</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>70008</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>70009</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>70010</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>70011</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>70012</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>70013</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>70014</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>70015</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>70016</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>70017</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>70018</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>70019</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>70020</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>70021</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>70022</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>70023</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>70024</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>70025</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>70026</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>70027</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>70028</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>70029</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>70030</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>70031</v>
-      </c>
-      <c r="B48">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>70032</v>
-      </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>70033</v>
-      </c>
-      <c r="B50">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>70034</v>
-      </c>
-      <c r="B51">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>30</v>
-      </c>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="5"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>70035</v>
-      </c>
-      <c r="B52">
-        <v>8</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>31</v>
-      </c>
+    <row r="52" spans="3:6">
+      <c r="C52" s="5"/>
       <c r="D52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>70036</v>
-      </c>
-      <c r="B53">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>32</v>
-      </c>
+    <row r="53" spans="3:6">
+      <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>70037</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>33</v>
-      </c>
+    <row r="54" spans="3:6">
+      <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>70038</v>
-      </c>
-      <c r="B55">
-        <v>8</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>54</v>
-      </c>
+    <row r="55" spans="3:6">
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>70039</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>55</v>
-      </c>
+    <row r="56" spans="3:6">
+      <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>70040</v>
-      </c>
-      <c r="B57">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>56</v>
-      </c>
+    <row r="57" spans="3:6">
+      <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>70041</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>57</v>
-      </c>
+    <row r="58" spans="3:6">
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>70042</v>
-      </c>
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>58</v>
-      </c>
+    <row r="59" spans="3:6">
+      <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>70043</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="60" spans="3:6">
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>70044</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>50</v>
-      </c>
+    <row r="61" spans="3:6">
+      <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>70045</v>
-      </c>
-      <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>51</v>
-      </c>
+    <row r="62" spans="3:6">
+      <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>70046</v>
-      </c>
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>52</v>
-      </c>
+    <row r="63" spans="3:6">
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>70047</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="64" spans="3:6">
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>70048</v>
-      </c>
-      <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>44</v>
-      </c>
+    <row r="65" spans="3:4">
+      <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>70049</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="66" spans="3:4">
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>70050</v>
-      </c>
-      <c r="B67">
-        <v>8</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>46</v>
-      </c>
+    <row r="67" spans="3:4">
+      <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>70051</v>
-      </c>
-      <c r="B68">
-        <v>8</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="68" spans="3:4">
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>70052</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>48</v>
-      </c>
+    <row r="69" spans="3:4">
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>70053</v>
-      </c>
-      <c r="B70">
-        <v>8</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>34</v>
-      </c>
+    <row r="70" spans="3:4">
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>70054</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>35</v>
-      </c>
+    <row r="71" spans="3:4">
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>70055</v>
-      </c>
-      <c r="B72">
-        <v>8</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="72" spans="3:4">
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>70056</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>37</v>
-      </c>
+    <row r="73" spans="3:4">
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>70057</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="74" spans="3:4">
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>70058</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>40</v>
-      </c>
+    <row r="75" spans="3:4">
+      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>70059</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>39</v>
-      </c>
+    <row r="76" spans="3:4">
+      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>70060</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="77" spans="3:4">
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>70061</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>42</v>
-      </c>
+    <row r="78" spans="3:4">
+      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>70062</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>43</v>
-      </c>
+    <row r="79" spans="3:4">
+      <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>70039</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>55</v>
-      </c>
+    <row r="80" spans="3:4">
+      <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>70040</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>56</v>
-      </c>
+    <row r="81" spans="3:4">
+      <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>70041</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>57</v>
-      </c>
+    <row r="82" spans="3:4">
+      <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>70042</v>
-      </c>
-      <c r="B83">
-        <v>8</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>58</v>
-      </c>
+    <row r="83" spans="3:4">
+      <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>70043</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="84" spans="3:4">
+      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>70044</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>70045</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>70046</v>
-      </c>
-      <c r="B87">
-        <v>8</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>70047</v>
-      </c>
-      <c r="B88">
-        <v>8</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>70048</v>
-      </c>
-      <c r="B89">
-        <v>8</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>70049</v>
-      </c>
-      <c r="B90">
-        <v>8</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>70050</v>
-      </c>
-      <c r="B91">
-        <v>8</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>70051</v>
-      </c>
-      <c r="B92">
-        <v>8</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>70052</v>
-      </c>
-      <c r="B93">
-        <v>8</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>70053</v>
-      </c>
-      <c r="B94">
-        <v>8</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>70054</v>
-      </c>
-      <c r="B95">
-        <v>8</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>70055</v>
-      </c>
-      <c r="B96">
-        <v>8</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>70056</v>
-      </c>
-      <c r="B97">
-        <v>8</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>70057</v>
-      </c>
-      <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>70058</v>
-      </c>
-      <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>70059</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>70060</v>
-      </c>
-      <c r="B101">
-        <v>8</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>70061</v>
-      </c>
-      <c r="B102">
-        <v>8</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>70062</v>
-      </c>
-      <c r="B103">
-        <v>8</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>70058</v>
-      </c>
-      <c r="B104">
-        <v>8</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>70059</v>
-      </c>
-      <c r="B105">
-        <v>8</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>70060</v>
-      </c>
-      <c r="B106">
-        <v>8</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>70061</v>
-      </c>
-      <c r="B107">
-        <v>8</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>70062</v>
-      </c>
-      <c r="B108">
-        <v>8</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    <row r="85" spans="3:4">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="3:3">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="3:3">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="3:3">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="3:3">
       <c r="C112" s="5"/>
     </row>
     <row r="113" spans="3:3">

--- a/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
+++ b/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\몬스터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304080F8-9FDB-483C-BE74-8CA3837B1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE0BDE-C27D-4F7A-BAD0-471C60AA05C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="11" r:id="rId1"/>
-    <sheet name="erd" sheetId="12" r:id="rId2"/>
-    <sheet name="패시브 스킬" sheetId="15" r:id="rId3"/>
-    <sheet name="StringTable" sheetId="19" r:id="rId4"/>
-    <sheet name="GPT cache" sheetId="5" state="veryHidden" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="22" r:id="rId2"/>
+    <sheet name="erd" sheetId="12" r:id="rId3"/>
+    <sheet name="몬스터" sheetId="15" r:id="rId4"/>
+    <sheet name="소환" sheetId="20" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId6"/>
+    <sheet name="StringTable" sheetId="19" r:id="rId7"/>
+    <sheet name="GPT cache" sheetId="5" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">StringTable!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'패시브 스킬'!$C$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">StringTable!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">몬스터!$C$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="298">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,9 +147,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
   </si>
   <si>
     <t>string</t>
@@ -285,6 +285,938 @@
   </si>
   <si>
     <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호</t>
+  </si>
+  <si>
+    <t>시간 (분:초)</t>
+  </si>
+  <si>
+    <t>몬스터 인덱스</t>
+  </si>
+  <si>
+    <t>최대 소환량</t>
+  </si>
+  <si>
+    <t>소환 설명</t>
+  </si>
+  <si>
+    <t>일반 몬스터 소환</t>
+  </si>
+  <si>
+    <t>엘리트 몬스터 소환</t>
+  </si>
+  <si>
+    <t>중간보스 소환</t>
+  </si>
+  <si>
+    <t>최종보스 소환</t>
+  </si>
+  <si>
+    <t>일반 몬스터 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터의 계산 수식을 이곳에 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 공격력 = (무기+장갑) + 특성 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 HP =  (투구 + 신발) + 특성 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 = 갑옷 + 특성 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 무기별 공격력 = (플레이어 공격력 *스킬 공격력) * (100+패시브 스킬 공격력/100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 = (플레이어 공격력 *스킬 공격력) * (100+패시브 스킬 공격력/100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 = 1+ (100+ 패시브 공격속도+ 특성 증가치)/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트링 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 사용하는 캐릭터의 정보가 들어가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 특수스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 스트링 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 스킬 스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 데이터가 들어가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 내에서 사용되는 아이템이 들어가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 판매하는 아이템이 들어가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 이름</t>
+  </si>
+  <si>
+    <t>장비 이름에 대한 스트링 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 설명</t>
+  </si>
+  <si>
+    <t>장비 설명에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>장비 능력</t>
+  </si>
+  <si>
+    <t>장비 능력에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>장비 특수능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 특수능력에 대한 스트링 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 이름</t>
+  </si>
+  <si>
+    <t>스킬 이름에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+  </si>
+  <si>
+    <t>스킬 설명에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>패시브 이름</t>
+  </si>
+  <si>
+    <t>패시브 이름에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>패시브 설명</t>
+  </si>
+  <si>
+    <t>패시브 설명에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명에 대한 스트링 값</t>
+  </si>
+  <si>
+    <t>장비 IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기, 방어구, 장신구 등의 ID값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 ID 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬의 ID 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 스키마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력 스키마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 등급별 능력 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 타입 구분. (0: 무기, 1: 방어구, 2: 장신구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA_AKP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 이름 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA_AKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도(쿨타임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 타입을 나눈 값 (0: 노말, 1: 레어, 2: 유니크, 3: 에픽, 4:레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA_Psup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile Speed</t>
+  </si>
+  <si>
+    <t>투사체속도증가</t>
+  </si>
+  <si>
+    <t>E_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 등급별 레벨 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA_Pnup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of projectiles</t>
+  </si>
+  <si>
+    <t>투사체 개수</t>
+  </si>
+  <si>
+    <t>E_AKP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 등급, 레벨별 공격력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA_Drup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased weapon range</t>
+  </si>
+  <si>
+    <t>무기 범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 등급, 레벨별 HP 표기</t>
+  </si>
+  <si>
+    <t>EA_Throughup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 파일이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 파일이름 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비에 들어가는 설명을 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_AFT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말 장비 능력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_AFT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어 장비 능력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_AFT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력3</t>
+  </si>
+  <si>
+    <t>유니크 장비 능력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_AFT4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력4</t>
+  </si>
+  <si>
+    <t>에픽 장비 능력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_AFT5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 능력5</t>
+  </si>
+  <si>
+    <t>레전드 장비 능력 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 스킬 스키마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬 인덱스 (0: 패시브, 1: 엑티브)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_AKP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 공격력 배수이다. (플레이어 공격력 * 스킬 배수) = 캐릭터 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력가이 스킬 레벨*8% 만큼 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_AKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 공격 속도(쿨타임)를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격속도(쿨타임)가 스킬 레벨*8% 만큼 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 이동속도를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_MSup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 이동속도가 스킬 레벨 *8%만큼 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_WD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 지속시간을 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Dup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간증가</t>
+  </si>
+  <si>
+    <t>스킬의 지속시간이 스킬 레벨 *8% 만큼 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_WR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 범위를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Drup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 범위가 스킬 레벨*8% 만큼 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_PN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 투사체 개수를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Psup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 개수가 스킬 레벨 *1 만큼 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_HPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초마다 HP가 회복량을 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Pnup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_HPMX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP가 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Hpre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp회복</t>
+  </si>
+  <si>
+    <t>5초마다 HP를 스킬 레벨*8% 만큼 회복한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 모든 피해가 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_HPmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 HP가 스킬 레벨*8% 만큼 증가한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 획득 범위가 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는피해감소</t>
+  </si>
+  <si>
+    <t>받는 피해가 스킬 레벨*5% 만큼 감소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_GD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻는 모든 골드가 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Prup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득범위증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">획득 범위가 스킬 레벨*8% 만큼 증가한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK_EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻는 모든 경험치가 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Gup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">골드 획득량이 스킬 레벨*8% 만큼 증가한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 스킬의 최대 관통 횟수를 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_EXPup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp획득량 증가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얻는 경험치가 스킬 레벨*8% 만큼 증가한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_Throughup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 스킬의 설명이 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 드롭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_AKP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_AKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 별 몬스터 소환 시간 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4분, 8분 같이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_IDX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_IDX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Max1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Max2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 강화서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 강화서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 테이블은 찬희한테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주형이가 몬스터 패턴쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트링으로 바꿀것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메니저 정리중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +1224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +1410,99 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +1527,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -541,11 +1612,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,12 +1773,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -631,12 +1789,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,12 +1854,259 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,24 +2469,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="54.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.75" style="1" bestFit="1" customWidth="1"/>
@@ -1111,466 +2511,926 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
+      <c r="B2" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
+      <c r="B3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
+      <c r="B9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
+      <c r="B12" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
+      <c r="B13" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="62"/>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
+      <c r="B17" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>53</v>
+      <c r="B18" s="77">
+        <v>100</v>
+      </c>
+      <c r="C18" s="77">
+        <v>199</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
+      <c r="B19" s="79">
+        <v>200</v>
+      </c>
+      <c r="C19" s="77">
+        <v>299</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
+      <c r="B20" s="77">
+        <v>300</v>
+      </c>
+      <c r="C20" s="77">
+        <v>399</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
+      <c r="B21" s="79">
+        <v>400</v>
+      </c>
+      <c r="C21" s="77">
+        <v>499</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="1" t="s">
-        <v>49</v>
+      <c r="B22" s="77">
+        <v>500</v>
+      </c>
+      <c r="C22" s="77">
+        <v>599</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="H22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
+      <c r="B23" s="79">
+        <v>600</v>
+      </c>
+      <c r="C23" s="77">
+        <v>699</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
+      <c r="B24" s="77">
+        <v>700</v>
+      </c>
+      <c r="C24" s="77">
+        <v>799</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
+      <c r="B25" s="79">
+        <v>800</v>
+      </c>
+      <c r="C25" s="77">
+        <v>899</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
+      <c r="B26" s="77">
+        <v>900</v>
+      </c>
+      <c r="C26" s="77">
+        <v>999</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>29</v>
+      <c r="B27" s="81">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="81">
+        <v>1999</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="66">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>35</v>
+      <c r="B28" s="83">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="81">
+        <v>2999</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>40</v>
+      <c r="B29" s="81">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="81">
+        <v>3999</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B30" s="83">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="81">
+        <v>4999</v>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B31" s="81">
+        <v>5000</v>
+      </c>
+      <c r="C31" s="81">
+        <v>5999</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="F32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B32" s="83">
+        <v>6000</v>
+      </c>
+      <c r="C32" s="81">
+        <v>6999</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="81">
+        <v>7000</v>
+      </c>
+      <c r="C33" s="81">
+        <v>7999</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="83">
+        <v>8000</v>
+      </c>
+      <c r="C34" s="81">
+        <v>8999</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="H34" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="81">
+        <v>9000</v>
+      </c>
+      <c r="C35" s="81">
+        <v>9999</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="H35" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="85">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="85">
+        <v>19999</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2"/>
+      <c r="B37" s="85">
+        <v>20000</v>
+      </c>
+      <c r="C37" s="85">
+        <v>29999</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="86" t="s">
+        <v>97</v>
+      </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2"/>
+      <c r="B38" s="85">
+        <v>30000</v>
+      </c>
+      <c r="C38" s="85">
+        <v>34999</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1"/>
+      <c r="B39" s="85">
+        <v>35000</v>
+      </c>
+      <c r="C39" s="85">
+        <v>39999</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1"/>
+      <c r="B40" s="85">
+        <v>40000</v>
+      </c>
+      <c r="C40" s="85">
+        <v>49999</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>103</v>
+      </c>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1"/>
+      <c r="B41" s="85">
+        <v>50000</v>
+      </c>
+      <c r="C41" s="85">
+        <v>59999</v>
+      </c>
+      <c r="D41" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="86" t="s">
+        <v>105</v>
+      </c>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1"/>
+      <c r="B42" s="85">
+        <v>60000</v>
+      </c>
+      <c r="C42" s="85">
+        <v>69999</v>
+      </c>
+      <c r="D42" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>107</v>
+      </c>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1"/>
+      <c r="B43" s="85">
+        <v>70000</v>
+      </c>
+      <c r="C43" s="85">
+        <v>79999</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>109</v>
+      </c>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1"/>
+      <c r="B44" s="85">
+        <v>80000</v>
+      </c>
+      <c r="C44" s="85">
+        <v>89999</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>111</v>
+      </c>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1"/>
+      <c r="B45" s="85">
+        <v>90000</v>
+      </c>
+      <c r="C45" s="85">
+        <v>99999</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>113</v>
+      </c>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1"/>
+      <c r="B46" s="88">
+        <v>100000</v>
+      </c>
+      <c r="C46" s="88">
+        <v>199999</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>115</v>
+      </c>
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1"/>
+      <c r="B47" s="88">
+        <v>200000</v>
+      </c>
+      <c r="C47" s="88">
+        <v>299999</v>
+      </c>
+      <c r="D47" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>117</v>
+      </c>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1"/>
+      <c r="B48" s="88">
+        <v>300000</v>
+      </c>
+      <c r="C48" s="88">
+        <v>399999</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>119</v>
+      </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
+    <row r="49" spans="2:5" s="1" customFormat="1">
+      <c r="B49" s="88">
+        <v>400000</v>
+      </c>
+      <c r="C49" s="88">
+        <v>499999</v>
+      </c>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+    </row>
+    <row r="50" spans="2:5" s="1" customFormat="1">
+      <c r="B50" s="88">
+        <v>500000</v>
+      </c>
+      <c r="C50" s="88">
+        <v>599999</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+    </row>
+    <row r="51" spans="2:5" s="1" customFormat="1">
+      <c r="B51" s="88">
+        <v>600000</v>
+      </c>
+      <c r="C51" s="88">
+        <v>699999</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+    </row>
+    <row r="52" spans="2:5" s="1" customFormat="1">
+      <c r="B52" s="88">
+        <v>700000</v>
+      </c>
+      <c r="C52" s="88">
+        <v>799999</v>
+      </c>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+    </row>
+    <row r="53" spans="2:5" s="1" customFormat="1">
+      <c r="B53" s="88">
+        <v>800000</v>
+      </c>
+      <c r="C53" s="88">
+        <v>899999</v>
+      </c>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+    </row>
+    <row r="54" spans="2:5" s="1" customFormat="1">
+      <c r="B54" s="88">
+        <v>900000</v>
+      </c>
+      <c r="C54" s="88">
+        <v>999999</v>
+      </c>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+    </row>
+    <row r="55" spans="2:5" s="1" customFormat="1">
+      <c r="B55" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1999999</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" s="1" customFormat="1">
+      <c r="B56" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="1" customFormat="1">
+      <c r="B57" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="1" customFormat="1">
+      <c r="B58" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="1" customFormat="1">
+      <c r="B59" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="1" customFormat="1">
+      <c r="B60" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="1" customFormat="1">
+      <c r="B61" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="1" customFormat="1">
+      <c r="B62" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="1" customFormat="1">
+      <c r="B63" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="1" customFormat="1"/>
     <row r="65" spans="1:13">
       <c r="A65" s="1"/>
       <c r="M65" s="1"/>
@@ -1588,157 +3448,93 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="38"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="38"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="38"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:21">
@@ -1747,476 +3543,454 @@
     </row>
     <row r="85" spans="1:21" ht="20.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
+      <c r="B85" s="47"/>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="37"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="39"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="37"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="37"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="42"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="37"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="37"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="37"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="37"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="37"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="37"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
-      <c r="R94" s="41"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="41"/>
-      <c r="U94" s="41"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="37"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="37"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="37"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="37"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="37"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
+      <c r="A99" s="33"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="37"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="37"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="37"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="37"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="37"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="41"/>
-      <c r="S104" s="41"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="41"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+      <c r="U104" s="37"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="41"/>
-      <c r="S105" s="41"/>
-      <c r="T105" s="41"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="42"/>
-      <c r="N106" s="42"/>
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
-      <c r="Q106" s="42"/>
-      <c r="R106" s="42"/>
-      <c r="S106" s="42"/>
-      <c r="T106" s="42"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="38"/>
+      <c r="R106" s="38"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="1"/>
@@ -2242,74 +4016,2475 @@
       <c r="A112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1"/>
-      <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1"/>
-      <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1"/>
-      <c r="M118" s="1"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1"/>
-      <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1"/>
-      <c r="M120" s="1"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1"/>
-      <c r="M121" s="1"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1"/>
-      <c r="M122" s="1"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1"/>
-      <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1"/>
-      <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1"/>
-      <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1"/>
-      <c r="M126" s="1"/>
-    </row>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
+    <row r="122" s="1" customFormat="1"/>
+    <row r="123" s="1" customFormat="1"/>
+    <row r="124" s="1" customFormat="1"/>
+    <row r="125" s="1" customFormat="1"/>
+    <row r="126" s="1" customFormat="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E8C90C-BD83-4A34-9C32-E192243F7166}">
+  <dimension ref="A3:Z118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16">
+      <c r="B3" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="L9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="62"/>
+      <c r="L14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="118"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="77">
+        <v>100</v>
+      </c>
+      <c r="C19" s="77">
+        <v>199</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="77">
+        <v>1</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="119"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="79">
+        <v>200</v>
+      </c>
+      <c r="C20" s="77">
+        <v>299</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="G20" s="79">
+        <v>2</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="119"/>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="77">
+        <v>300</v>
+      </c>
+      <c r="C21" s="77">
+        <v>399</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="G21" s="77">
+        <v>3</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="119"/>
+      <c r="L21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="79">
+        <v>400</v>
+      </c>
+      <c r="C22" s="77">
+        <v>499</v>
+      </c>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="G22" s="79">
+        <v>4</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="119"/>
+      <c r="L22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="77">
+        <v>500</v>
+      </c>
+      <c r="C23" s="77">
+        <v>599</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="G23" s="77">
+        <v>5</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="119"/>
+      <c r="L23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="79">
+        <v>600</v>
+      </c>
+      <c r="C24" s="77">
+        <v>699</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="G24" s="79">
+        <v>6</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="119"/>
+      <c r="L24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="77">
+        <v>700</v>
+      </c>
+      <c r="C25" s="77">
+        <v>799</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="G25" s="77">
+        <v>7</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="119"/>
+      <c r="L25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="79">
+        <v>800</v>
+      </c>
+      <c r="C26" s="77">
+        <v>899</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="G26" s="79">
+        <v>8</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="119"/>
+      <c r="L26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="77">
+        <v>900</v>
+      </c>
+      <c r="C27" s="77">
+        <v>999</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="G27" s="77">
+        <v>9</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="119"/>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="81">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="81">
+        <v>1999</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="79">
+        <v>10</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="119"/>
+      <c r="L28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="83">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="81">
+        <v>2999</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="77">
+        <v>11</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="119"/>
+      <c r="L29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="81">
+        <v>3000</v>
+      </c>
+      <c r="C30" s="81">
+        <v>3999</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="79">
+        <v>12</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="119"/>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="83">
+        <v>4000</v>
+      </c>
+      <c r="C31" s="81">
+        <v>4999</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="G31" s="77">
+        <v>13</v>
+      </c>
+      <c r="H31" s="81"/>
+      <c r="I31" s="119"/>
+      <c r="L31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="81">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="81">
+        <v>5999</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="G32" s="79">
+        <v>14</v>
+      </c>
+      <c r="H32" s="81"/>
+      <c r="I32" s="119"/>
+      <c r="L32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="83">
+        <v>6000</v>
+      </c>
+      <c r="C33" s="81">
+        <v>6999</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="G33" s="77">
+        <v>15</v>
+      </c>
+      <c r="H33" s="81"/>
+      <c r="I33" s="119"/>
+      <c r="L33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="81">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="81">
+        <v>7999</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="G34" s="79">
+        <v>16</v>
+      </c>
+      <c r="H34" s="81"/>
+      <c r="I34" s="119"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="83">
+        <v>8000</v>
+      </c>
+      <c r="C35" s="81">
+        <v>8999</v>
+      </c>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="G35" s="77">
+        <v>17</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="I35" s="119"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="81">
+        <v>9000</v>
+      </c>
+      <c r="C36" s="81">
+        <v>9999</v>
+      </c>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="G36" s="79">
+        <v>18</v>
+      </c>
+      <c r="H36" s="81"/>
+      <c r="I36" s="119"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="85">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="85">
+        <v>19999</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="77">
+        <v>19</v>
+      </c>
+      <c r="H37" s="85"/>
+      <c r="I37" s="119"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="85">
+        <v>20000</v>
+      </c>
+      <c r="C38" s="85">
+        <v>29999</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="79">
+        <v>20</v>
+      </c>
+      <c r="H38" s="85"/>
+      <c r="I38" s="119"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="85">
+        <v>30000</v>
+      </c>
+      <c r="C39" s="85">
+        <v>34999</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="77">
+        <v>21</v>
+      </c>
+      <c r="H39" s="85"/>
+      <c r="I39" s="119"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="85">
+        <v>35000</v>
+      </c>
+      <c r="C40" s="85">
+        <v>39999</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="79">
+        <v>22</v>
+      </c>
+      <c r="H40" s="85"/>
+      <c r="I40" s="119"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="85">
+        <v>40000</v>
+      </c>
+      <c r="C41" s="85">
+        <v>49999</v>
+      </c>
+      <c r="D41" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="77">
+        <v>23</v>
+      </c>
+      <c r="H41" s="85"/>
+      <c r="I41" s="119"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="85">
+        <v>50000</v>
+      </c>
+      <c r="C42" s="85">
+        <v>59999</v>
+      </c>
+      <c r="D42" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="79">
+        <v>24</v>
+      </c>
+      <c r="H42" s="85"/>
+      <c r="I42" s="119"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="85">
+        <v>60000</v>
+      </c>
+      <c r="C43" s="85">
+        <v>69999</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="77">
+        <v>25</v>
+      </c>
+      <c r="H43" s="85"/>
+      <c r="I43" s="119"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="85">
+        <v>70000</v>
+      </c>
+      <c r="C44" s="85">
+        <v>79999</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="79">
+        <v>26</v>
+      </c>
+      <c r="H44" s="85"/>
+      <c r="I44" s="119"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="85">
+        <v>80000</v>
+      </c>
+      <c r="C45" s="85">
+        <v>89999</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="77">
+        <v>27</v>
+      </c>
+      <c r="H45" s="85"/>
+      <c r="I45" s="119"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="85">
+        <v>90000</v>
+      </c>
+      <c r="C46" s="85">
+        <v>99999</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="79">
+        <v>28</v>
+      </c>
+      <c r="H46" s="85"/>
+      <c r="I46" s="119"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="88">
+        <v>100000</v>
+      </c>
+      <c r="C47" s="88">
+        <v>199999</v>
+      </c>
+      <c r="D47" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="77">
+        <v>29</v>
+      </c>
+      <c r="H47" s="88"/>
+      <c r="I47" s="120"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="88">
+        <v>200000</v>
+      </c>
+      <c r="C48" s="88">
+        <v>299999</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="79">
+        <v>30</v>
+      </c>
+      <c r="H48" s="88"/>
+      <c r="I48" s="120"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="88">
+        <v>300000</v>
+      </c>
+      <c r="C49" s="88">
+        <v>399999</v>
+      </c>
+      <c r="D49" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="77">
+        <v>31</v>
+      </c>
+      <c r="H49" s="88"/>
+      <c r="I49" s="120"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="88">
+        <v>400000</v>
+      </c>
+      <c r="C50" s="88">
+        <v>499999</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="G50" s="79">
+        <v>32</v>
+      </c>
+      <c r="H50" s="88"/>
+      <c r="I50" s="120"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="88">
+        <v>500000</v>
+      </c>
+      <c r="C51" s="88">
+        <v>599999</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="G51" s="77">
+        <v>33</v>
+      </c>
+      <c r="H51" s="88"/>
+      <c r="I51" s="120"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="88">
+        <v>600000</v>
+      </c>
+      <c r="C52" s="88">
+        <v>699999</v>
+      </c>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="G52" s="79">
+        <v>34</v>
+      </c>
+      <c r="H52" s="88"/>
+      <c r="I52" s="120"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="88">
+        <v>700000</v>
+      </c>
+      <c r="C53" s="88">
+        <v>799999</v>
+      </c>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="G53" s="77">
+        <v>35</v>
+      </c>
+      <c r="H53" s="88"/>
+      <c r="I53" s="120"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="88">
+        <v>800000</v>
+      </c>
+      <c r="C54" s="88">
+        <v>899999</v>
+      </c>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="G54" s="79">
+        <v>36</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="120"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="88">
+        <v>900000</v>
+      </c>
+      <c r="C55" s="88">
+        <v>999999</v>
+      </c>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="G55" s="77">
+        <v>37</v>
+      </c>
+      <c r="H55" s="88"/>
+      <c r="I55" s="120"/>
+    </row>
+    <row r="58" spans="2:17" ht="20.25">
+      <c r="B58" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="G58" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="92">
+        <v>1</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="95">
+        <v>1</v>
+      </c>
+      <c r="H60" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="97"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="92">
+        <v>2</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="95">
+        <v>2</v>
+      </c>
+      <c r="H61" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="95"/>
+      <c r="J61" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="92">
+        <v>3</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="95">
+        <v>3</v>
+      </c>
+      <c r="H62" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="92">
+        <v>4</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="95">
+        <v>4</v>
+      </c>
+      <c r="H63" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="92">
+        <v>5</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="95">
+        <v>5</v>
+      </c>
+      <c r="H64" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65" s="92">
+        <v>6</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="103"/>
+      <c r="G65" s="95">
+        <v>6</v>
+      </c>
+      <c r="H65" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66" s="92">
+        <v>7</v>
+      </c>
+      <c r="C66" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="104">
+        <v>7</v>
+      </c>
+      <c r="H66" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="I66" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="2:26">
+      <c r="B67" s="92">
+        <v>8</v>
+      </c>
+      <c r="C67" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="95">
+        <v>8</v>
+      </c>
+      <c r="H67" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="I67" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+    </row>
+    <row r="68" spans="2:26">
+      <c r="B68" s="92">
+        <v>9</v>
+      </c>
+      <c r="C68" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="34"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="69" spans="2:26">
+      <c r="B69" s="92">
+        <v>10</v>
+      </c>
+      <c r="C69" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="108"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+    </row>
+    <row r="70" spans="2:26">
+      <c r="B70" s="92">
+        <v>11</v>
+      </c>
+      <c r="C70" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="34"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="71" spans="2:26">
+      <c r="B71" s="92">
+        <v>12</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="34"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+    </row>
+    <row r="72" spans="2:26">
+      <c r="B72" s="92">
+        <v>13</v>
+      </c>
+      <c r="C72" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="34"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+    </row>
+    <row r="73" spans="2:26">
+      <c r="B73" s="92">
+        <v>14</v>
+      </c>
+      <c r="C73" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+    </row>
+    <row r="74" spans="2:26">
+      <c r="B74" s="92">
+        <v>15</v>
+      </c>
+      <c r="C74" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="34"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+    </row>
+    <row r="75" spans="2:26">
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+    </row>
+    <row r="76" spans="2:26">
+      <c r="E76" s="33"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:26" ht="20.25">
+      <c r="B77" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+    </row>
+    <row r="78" spans="2:26" ht="17.25">
+      <c r="B78" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" ht="17.25">
+      <c r="B79" s="111">
+        <v>1</v>
+      </c>
+      <c r="C79" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J79" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+      <c r="Z79" s="36"/>
+    </row>
+    <row r="80" spans="2:26" ht="17.25">
+      <c r="B80" s="111">
+        <v>2</v>
+      </c>
+      <c r="C80" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="G80" s="12">
+        <v>2</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+    </row>
+    <row r="81" spans="2:26" ht="17.25">
+      <c r="B81" s="111">
+        <v>3</v>
+      </c>
+      <c r="C81" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="12">
+        <v>3</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+    </row>
+    <row r="82" spans="2:26" ht="17.25">
+      <c r="B82" s="111">
+        <v>4</v>
+      </c>
+      <c r="C82" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="12">
+        <v>4</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="37"/>
+    </row>
+    <row r="83" spans="2:26" ht="17.25">
+      <c r="B83" s="111">
+        <v>5</v>
+      </c>
+      <c r="C83" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="12">
+        <v>5</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+    </row>
+    <row r="84" spans="2:26" ht="17.25">
+      <c r="B84" s="111">
+        <v>6</v>
+      </c>
+      <c r="C84" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="G84" s="12">
+        <v>6</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37"/>
+    </row>
+    <row r="85" spans="2:26" ht="17.25">
+      <c r="B85" s="111">
+        <v>7</v>
+      </c>
+      <c r="C85" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="G85" s="12">
+        <v>7</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J85" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37"/>
+    </row>
+    <row r="86" spans="2:26" ht="17.25">
+      <c r="B86" s="111">
+        <v>8</v>
+      </c>
+      <c r="C86" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="G86" s="12">
+        <v>8</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+    </row>
+    <row r="87" spans="2:26" ht="17.25">
+      <c r="B87" s="111">
+        <v>9</v>
+      </c>
+      <c r="C87" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="G87" s="12">
+        <v>9</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J87" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="37"/>
+    </row>
+    <row r="88" spans="2:26" ht="17.25">
+      <c r="B88" s="111">
+        <v>10</v>
+      </c>
+      <c r="C88" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="12">
+        <v>10</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J88" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+    </row>
+    <row r="89" spans="2:26" ht="17.25">
+      <c r="B89" s="111">
+        <v>11</v>
+      </c>
+      <c r="C89" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="12">
+        <v>11</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="J89" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+    </row>
+    <row r="90" spans="2:26" ht="17.25">
+      <c r="B90" s="111">
+        <v>12</v>
+      </c>
+      <c r="C90" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" s="12">
+        <v>12</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J90" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+    </row>
+    <row r="91" spans="2:26" ht="17.25">
+      <c r="B91" s="111">
+        <v>13</v>
+      </c>
+      <c r="C91" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="113" t="s">
+        <v>240</v>
+      </c>
+      <c r="E91" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="G91" s="12">
+        <v>13</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J91" s="113" t="s">
+        <v>244</v>
+      </c>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+    </row>
+    <row r="92" spans="2:26" ht="17.25">
+      <c r="B92" s="111">
+        <v>14</v>
+      </c>
+      <c r="C92" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="12">
+        <v>14</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J92" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="37"/>
+    </row>
+    <row r="93" spans="2:26" ht="17.25">
+      <c r="B93" s="111">
+        <v>15</v>
+      </c>
+      <c r="C93" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="G93" s="12">
+        <v>15</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I93" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="J93" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
+      <c r="Z93" s="37"/>
+    </row>
+    <row r="94" spans="2:26" ht="17.25">
+      <c r="B94" s="111">
+        <v>16</v>
+      </c>
+      <c r="C94" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="12">
+        <v>16</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="J94" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="37"/>
+    </row>
+    <row r="95" spans="2:26" ht="17.25">
+      <c r="B95" s="111">
+        <v>17</v>
+      </c>
+      <c r="C95" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="G95" s="12">
+        <v>17</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J95" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
+    </row>
+    <row r="96" spans="2:26" ht="17.25">
+      <c r="B96" s="111">
+        <v>18</v>
+      </c>
+      <c r="C96" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="117" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" s="12">
+        <v>18</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+    </row>
+    <row r="97" spans="2:25" ht="17.25">
+      <c r="E97" s="33"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="12">
+        <v>19</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J97" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
+    </row>
+    <row r="98" spans="2:25">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+    </row>
+    <row r="99" spans="2:25">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="2:25">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:25">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="2:25">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="2:25">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:25">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:25">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:25">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:25">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="2:25">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="2:25">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="2:25">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:25">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="2:25">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="G77:J77"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8733DBD-1E11-4962-9830-5214ED099AFA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C49" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2322,34 +6497,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462EFC5-EC71-4207-BB56-2CFCCE10914B}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="15"/>
+    <col min="5" max="5" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1">
+    <row r="1" spans="1:15" s="14" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>21</v>
+      <c r="B1" s="52" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -2358,425 +6534,445 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="12"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" s="26" customFormat="1" ht="16.5">
-      <c r="A2" s="24"/>
-      <c r="B2" s="58" t="s">
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" s="24" customFormat="1" ht="16.5">
+      <c r="A2" s="121"/>
+      <c r="B2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="19" customFormat="1" ht="33">
+      <c r="A3" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" ht="33">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="20"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" s="52" customFormat="1" ht="16.5">
-      <c r="A4" s="19" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" s="48" customFormat="1" ht="16.5">
+      <c r="A4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="I4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="8"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="C6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="H6" s="7"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="F7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="C8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="H8" s="7"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="C9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="F9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="C10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="C11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="H11" s="7"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="C12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="G12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="C13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="H13" s="7"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="C15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="H15" s="7"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="C16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="H16" s="7"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="3:9">
+      <c r="H17" s="7"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="3:9">
+      <c r="H18" s="7"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="H19" s="7"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="H20" s="7"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="H21" s="7"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="H22" s="7"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="H23" s="7"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="H24" s="7"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="H25" s="7"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="H26" s="7"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="3:10">
       <c r="C27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="3:9">
+      <c r="H27" s="7"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="3:10">
       <c r="C28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="3:9">
+      <c r="H28" s="7"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="3:10">
       <c r="C29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="3:9">
+      <c r="H29" s="7"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="3:10">
       <c r="C30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="3:9">
+      <c r="H30" s="7"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="3:10">
       <c r="C31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="3:9">
+      <c r="H31" s="7"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="3:8">
+      <c r="H32" s="7"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="3:9">
       <c r="C33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="3:8">
+      <c r="H33" s="7"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="3:9">
       <c r="C34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="3:8">
+      <c r="H34" s="7"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="3:9">
       <c r="C35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="3:8">
+      <c r="H35" s="7"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="3:9">
       <c r="C36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="3:8">
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="3:9">
       <c r="C37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="3:8">
+      <c r="H37" s="7"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="3:9">
       <c r="C38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="3:8">
+      <c r="H38" s="7"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="3:9">
       <c r="C39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="3:8">
+      <c r="H39" s="7"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="3:9">
       <c r="C40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="3:8">
+      <c r="H40" s="7"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="3:9">
       <c r="C41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="3:8">
+      <c r="H41" s="7"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="3:9">
       <c r="C42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="3:8">
+      <c r="H42" s="7"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="3:9">
       <c r="C43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="3:8">
+      <c r="H43" s="7"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="3:9">
       <c r="C44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="3:8">
+      <c r="H44" s="7"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="3:9">
       <c r="C45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="3:8">
+      <c r="H45" s="7"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="3:9">
       <c r="C46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="3:8">
+      <c r="H46" s="7"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="3:9">
       <c r="C47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="3:8">
+      <c r="H47" s="7"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="3:9">
       <c r="C48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="3:8">
+      <c r="H48" s="7"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="3:9">
       <c r="C49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="3:8">
+      <c r="H49" s="7"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="3:9">
       <c r="C50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="3:8">
+      <c r="H50" s="7"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="3:9">
       <c r="C51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="3:8">
+      <c r="H51" s="7"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="3:9">
       <c r="C52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="3:8">
+      <c r="H52" s="7"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="3:9">
       <c r="C53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="3:8">
+      <c r="H53" s="7"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="3:9">
       <c r="C54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="3:8">
+      <c r="H54" s="7"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="3:9">
       <c r="C55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="3:8">
+      <c r="H55" s="7"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="3:9">
       <c r="C56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="3:8">
+      <c r="H56" s="7"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="3:9">
       <c r="C57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="3:8">
+      <c r="H57" s="7"/>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" spans="3:9">
       <c r="C58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="3:8">
+      <c r="H58" s="7"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="3:9">
       <c r="C59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="3:8">
+      <c r="H59" s="7"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="3:9">
       <c r="C60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="3:8">
+      <c r="H60" s="7"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="3:9">
       <c r="C61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="3:8">
+      <c r="H61" s="7"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="3:9">
       <c r="C62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="1:8" s="18" customFormat="1">
+      <c r="H62" s="7"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66" s="15"/>
       <c r="B66" s="1"/>
       <c r="C66" s="8"/>
@@ -2784,10 +6980,11 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="H67" s="16"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="I67" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D106" xr:uid="{B0F52189-3DC1-44EE-9D89-FED0F29BD3A8}"/>
@@ -2796,7 +6993,444 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CAC01A-F0CD-4616-A33E-C588FE3A08B5}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="132">
+        <v>1</v>
+      </c>
+      <c r="D9" s="134">
+        <v>0</v>
+      </c>
+      <c r="E9" s="137"/>
+      <c r="F9" s="132">
+        <v>500</v>
+      </c>
+      <c r="G9" s="137"/>
+      <c r="H9" s="132">
+        <v>500</v>
+      </c>
+      <c r="I9" s="132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="133">
+        <v>1</v>
+      </c>
+      <c r="D10" s="135">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="133">
+        <v>1</v>
+      </c>
+      <c r="D11" s="135">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133">
+        <v>1</v>
+      </c>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133">
+        <v>1</v>
+      </c>
+      <c r="I11" s="133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="133">
+        <v>1</v>
+      </c>
+      <c r="D12" s="135">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="133">
+        <v>1</v>
+      </c>
+      <c r="D13" s="135">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133">
+        <v>1</v>
+      </c>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133">
+        <v>1</v>
+      </c>
+      <c r="I13" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="133">
+        <v>1</v>
+      </c>
+      <c r="D14" s="135">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133">
+        <v>100</v>
+      </c>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133">
+        <v>100</v>
+      </c>
+      <c r="I14" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="133">
+        <v>1</v>
+      </c>
+      <c r="D15" s="135">
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133">
+        <v>2</v>
+      </c>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133">
+        <v>2</v>
+      </c>
+      <c r="I15" s="133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="133">
+        <v>1</v>
+      </c>
+      <c r="D16" s="135">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133">
+        <v>5</v>
+      </c>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133">
+        <v>5</v>
+      </c>
+      <c r="I16" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="133">
+        <v>1</v>
+      </c>
+      <c r="D17" s="135">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133">
+        <v>1</v>
+      </c>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133">
+        <v>1</v>
+      </c>
+      <c r="I17" s="133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="133">
+        <v>1</v>
+      </c>
+      <c r="D18" s="135">
+        <v>0.1875</v>
+      </c>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133">
+        <v>5</v>
+      </c>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133">
+        <v>5</v>
+      </c>
+      <c r="I18" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="133">
+        <v>1</v>
+      </c>
+      <c r="D19" s="135">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133">
+        <v>1</v>
+      </c>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133">
+        <v>1</v>
+      </c>
+      <c r="I19" s="133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="133">
+        <v>1</v>
+      </c>
+      <c r="D20" s="135">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133">
+        <v>5</v>
+      </c>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133">
+        <v>5</v>
+      </c>
+      <c r="I20" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="133">
+        <v>1</v>
+      </c>
+      <c r="D21" s="135">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133">
+        <v>5</v>
+      </c>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133">
+        <v>5</v>
+      </c>
+      <c r="I21" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="133">
+        <v>1</v>
+      </c>
+      <c r="D22" s="135">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133">
+        <v>5</v>
+      </c>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133">
+        <v>5</v>
+      </c>
+      <c r="I22" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="133">
+        <v>1</v>
+      </c>
+      <c r="D23" s="135">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133">
+        <v>1</v>
+      </c>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133">
+        <v>1</v>
+      </c>
+      <c r="I23" s="133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="133">
+        <v>1</v>
+      </c>
+      <c r="D24" s="135">
+        <v>0.3125</v>
+      </c>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133">
+        <v>5</v>
+      </c>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133">
+        <v>5</v>
+      </c>
+      <c r="I24" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="133">
+        <v>1</v>
+      </c>
+      <c r="D25" s="135">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133">
+        <v>1</v>
+      </c>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133">
+        <v>1</v>
+      </c>
+      <c r="I25" s="133" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E0EC3-2D4E-4BE2-BB55-798511401DA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F69EF-F857-4FC3-8F5A-DC82EE320A84}">
   <dimension ref="A1:F184"/>
   <sheetViews>
@@ -2813,69 +7447,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>20</v>
+      <c r="C2" s="27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
-      <c r="C3" s="27"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="17.25">
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="17.25">
-      <c r="C5" s="27"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="17.25">
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="17.25">
-      <c r="C7" s="27"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="17.25">
-      <c r="C8" s="27"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="17.25">
-      <c r="C9" s="27"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="17.25">
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="17.25">
-      <c r="C11" s="27"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="17.25">
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="17.25">
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="17.25">
-      <c r="C14" s="27"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="17.25">
-      <c r="C15" s="28"/>
+      <c r="C15" s="26"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="17.25">
-      <c r="C16" s="28"/>
+      <c r="C16" s="26"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="3:3">
@@ -3378,7 +8012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF3CF1E-9C54-41E1-A8BC-3C491D03EE37}">
   <dimension ref="VLJ413240"/>
   <sheetViews>

--- a/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
+++ b/contents/동물서바이벌/문서/몬스터 테이블/동물서바이벌_테이블_몬스터.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\몬스터 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Documents\GitHub\wepatens\contents\동물서바이벌\문서\몬스터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE0BDE-C27D-4F7A-BAD0-471C60AA05C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD0D325-2584-473D-A10D-825BBFCD5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="22" r:id="rId2"/>
     <sheet name="erd" sheetId="12" r:id="rId3"/>
-    <sheet name="몬스터" sheetId="15" r:id="rId4"/>
-    <sheet name="소환" sheetId="20" r:id="rId5"/>
+    <sheet name="소환" sheetId="20" r:id="rId4"/>
+    <sheet name="몬스터" sheetId="15" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="21" r:id="rId6"/>
     <sheet name="StringTable" sheetId="19" r:id="rId7"/>
     <sheet name="GPT cache" sheetId="5" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">StringTable!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">몬스터!$C$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">몬스터!$C$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="312">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1217,6 +1217,62 @@
   </si>
   <si>
     <t>메니저 정리중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 강화서 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 강화서 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장갑 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투구 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 확률 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,9 +1967,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,12 +2014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,13 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2107,6 +2148,15 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2467,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2486,40 +2536,25 @@
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>66</v>
@@ -2530,9 +2565,8 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="58"/>
       <c r="C4" s="59"/>
@@ -2544,9 +2578,8 @@
       <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="58" t="s">
         <v>67</v>
@@ -2560,9 +2593,20 @@
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2"/>
       <c r="B6" s="58" t="s">
         <v>68</v>
@@ -2576,9 +2620,17 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2"/>
       <c r="B7" s="58" t="s">
         <v>69</v>
@@ -2592,9 +2644,14 @@
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2"/>
       <c r="B8" s="58"/>
       <c r="C8" s="61"/>
@@ -2606,9 +2663,17 @@
       <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="J8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2"/>
       <c r="B9" s="58" t="s">
         <v>70</v>
@@ -2622,9 +2687,17 @@
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2"/>
       <c r="B10" s="63" t="s">
         <v>71</v>
@@ -2632,9 +2705,11 @@
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
       <c r="E10" s="62"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2"/>
       <c r="B11" s="64" t="s">
         <v>72</v>
@@ -2645,9 +2720,11 @@
       <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2"/>
       <c r="B12" s="64" t="s">
         <v>73</v>
@@ -2658,9 +2735,20 @@
       <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2"/>
       <c r="B13" s="65" t="s">
         <v>37</v>
@@ -2671,9 +2759,8 @@
       <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2"/>
       <c r="B14" s="65"/>
       <c r="C14" s="67"/>
@@ -2688,9 +2775,14 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="K14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2"/>
       <c r="B15" s="69"/>
       <c r="C15" s="67"/>
@@ -2705,9 +2797,14 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -2722,18 +2819,23 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="K16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="136"/>
+      <c r="D17" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="73" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2745,20 +2847,25 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="K17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2"/>
-      <c r="B18" s="77">
+      <c r="B18" s="76">
         <v>100</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="76">
         <v>199</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2770,18 +2877,23 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="K18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2"/>
-      <c r="B19" s="79">
+      <c r="B19" s="78">
         <v>200</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="76">
         <v>299</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="H19" s="1" t="s">
         <v>49</v>
       </c>
@@ -2791,18 +2903,23 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="K19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2"/>
-      <c r="B20" s="77">
+      <c r="B20" s="76">
         <v>300</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="76">
         <v>399</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="H20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2812,18 +2929,23 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="K20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2"/>
-      <c r="B21" s="79">
+      <c r="B21" s="78">
         <v>400</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="76">
         <v>499</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="H21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2833,107 +2955,122 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="K21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2"/>
-      <c r="B22" s="77">
+      <c r="B22" s="76">
         <v>500</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="76">
         <v>599</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="H22" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2"/>
-      <c r="B23" s="79">
+      <c r="B23" s="78">
         <v>600</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="76">
         <v>699</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2"/>
-      <c r="B24" s="77">
+      <c r="B24" s="76">
         <v>700</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="76">
         <v>799</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
       <c r="H24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="K24" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2"/>
-      <c r="B25" s="79">
+      <c r="B25" s="78">
         <v>800</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="76">
         <v>899</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
       <c r="H25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2"/>
-      <c r="B26" s="77">
+      <c r="B26" s="76">
         <v>900</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="76">
         <v>999</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
       <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="K26" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2"/>
-      <c r="B27" s="81">
+      <c r="B27" s="80">
         <v>1000</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="80">
         <v>1999</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="81" t="s">
         <v>89</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2942,20 +3079,19 @@
       <c r="I27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="66">
+    </row>
+    <row r="28" spans="1:12" ht="33">
       <c r="A28" s="2"/>
-      <c r="B28" s="83">
+      <c r="B28" s="82">
         <v>2000</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="80">
         <v>2999</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="83" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2964,20 +3100,19 @@
       <c r="I28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2"/>
-      <c r="B29" s="81">
+      <c r="B29" s="80">
         <v>3000</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="80">
         <v>3999</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="81" t="s">
         <v>93</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2986,98 +3121,91 @@
       <c r="I29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2"/>
-      <c r="B30" s="83">
+      <c r="B30" s="82">
         <v>4000</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="80">
         <v>4999</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2"/>
-      <c r="B31" s="81">
+      <c r="B31" s="80">
         <v>5000</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="80">
         <v>5999</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2"/>
-      <c r="B32" s="83">
+      <c r="B32" s="82">
         <v>6000</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="80">
         <v>6999</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
-      <c r="B33" s="81">
+      <c r="B33" s="80">
         <v>7000</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="80">
         <v>7999</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
-      <c r="B34" s="83">
+      <c r="B34" s="82">
         <v>8000</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="80">
         <v>8999</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="H34" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
-      <c r="B35" s="81">
+      <c r="B35" s="80">
         <v>9000</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="80">
         <v>9999</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
       <c r="H35" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
-      <c r="B36" s="85">
+      <c r="B36" s="84">
         <v>10000</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="84">
         <v>19999</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="86" t="s">
+      <c r="E36" s="85" t="s">
         <v>95</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3089,36 +3217,34 @@
       <c r="J36" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="84">
         <v>20000</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="84">
         <v>29999</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2"/>
-      <c r="B38" s="85">
+      <c r="B38" s="84">
         <v>30000</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="84">
         <v>34999</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="85" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3130,230 +3256,219 @@
       <c r="J38" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
-      <c r="B39" s="85">
+      <c r="B39" s="84">
         <v>35000</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="84">
         <v>39999</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="85" t="s">
         <v>101</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
-      <c r="B40" s="85">
+      <c r="B40" s="84">
         <v>40000</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="84">
         <v>49999</v>
       </c>
-      <c r="D40" s="86" t="s">
+      <c r="D40" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
-      <c r="B41" s="85">
+      <c r="B41" s="84">
         <v>50000</v>
       </c>
-      <c r="C41" s="85">
+      <c r="C41" s="84">
         <v>59999</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
-      <c r="B42" s="85">
+      <c r="B42" s="84">
         <v>60000</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="84">
         <v>69999</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="85">
+      <c r="B43" s="84">
         <v>70000</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="84">
         <v>79999</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
-      <c r="B44" s="85">
+      <c r="B44" s="84">
         <v>80000</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="84">
         <v>89999</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
-      <c r="B45" s="85">
+      <c r="B45" s="84">
         <v>90000</v>
       </c>
-      <c r="C45" s="85">
+      <c r="C45" s="84">
         <v>99999</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
-      <c r="B46" s="88">
+      <c r="B46" s="87">
         <v>100000</v>
       </c>
-      <c r="C46" s="88">
+      <c r="C46" s="87">
         <v>199999</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D46" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1"/>
-      <c r="B47" s="88">
+      <c r="B47" s="87">
         <v>200000</v>
       </c>
-      <c r="C47" s="88">
+      <c r="C47" s="87">
         <v>299999</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
-      <c r="B48" s="88">
+      <c r="B48" s="87">
         <v>300000</v>
       </c>
-      <c r="C48" s="88">
+      <c r="C48" s="87">
         <v>399999</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="89" t="s">
+      <c r="E48" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="2:5" s="1" customFormat="1">
-      <c r="B49" s="88">
+      <c r="B49" s="87">
         <v>400000</v>
       </c>
-      <c r="C49" s="88">
+      <c r="C49" s="87">
         <v>499999</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
     </row>
     <row r="50" spans="2:5" s="1" customFormat="1">
-      <c r="B50" s="88">
+      <c r="B50" s="87">
         <v>500000</v>
       </c>
-      <c r="C50" s="88">
+      <c r="C50" s="87">
         <v>599999</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
     </row>
     <row r="51" spans="2:5" s="1" customFormat="1">
-      <c r="B51" s="88">
+      <c r="B51" s="87">
         <v>600000</v>
       </c>
-      <c r="C51" s="88">
+      <c r="C51" s="87">
         <v>699999</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
     </row>
     <row r="52" spans="2:5" s="1" customFormat="1">
-      <c r="B52" s="88">
+      <c r="B52" s="87">
         <v>700000</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="87">
         <v>799999</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
     </row>
     <row r="53" spans="2:5" s="1" customFormat="1">
-      <c r="B53" s="88">
+      <c r="B53" s="87">
         <v>800000</v>
       </c>
-      <c r="C53" s="88">
+      <c r="C53" s="87">
         <v>899999</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
     </row>
     <row r="54" spans="2:5" s="1" customFormat="1">
-      <c r="B54" s="88">
+      <c r="B54" s="87">
         <v>900000</v>
       </c>
-      <c r="C54" s="88">
+      <c r="C54" s="87">
         <v>999999</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
     </row>
     <row r="55" spans="2:5" s="1" customFormat="1">
       <c r="B55" s="1">
@@ -3431,127 +3546,105 @@
       </c>
     </row>
     <row r="64" spans="2:5" s="1" customFormat="1"/>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:5">
       <c r="A65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="34"/>
       <c r="B79" s="32"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="34"/>
       <c r="B80" s="32"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="1:21">
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="34"/>
       <c r="B81" s="32"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="1:21">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:21">
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:21">
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="1:21" ht="20.25">
+    </row>
+    <row r="85" spans="1:11" ht="20.25">
       <c r="A85" s="1"/>
       <c r="B85" s="47"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="1:21">
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="33"/>
       <c r="B86" s="39"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:21">
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="33"/>
       <c r="B87" s="40"/>
       <c r="C87" s="36"/>
@@ -3560,14 +3653,8 @@
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-    </row>
-    <row r="88" spans="1:21">
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="33"/>
       <c r="B88" s="40"/>
       <c r="C88" s="41"/>
@@ -3576,18 +3663,8 @@
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-    </row>
-    <row r="89" spans="1:21">
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="33"/>
       <c r="B89" s="40"/>
       <c r="C89" s="41"/>
@@ -3596,18 +3673,8 @@
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-    </row>
-    <row r="90" spans="1:21">
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="33"/>
       <c r="B90" s="40"/>
       <c r="C90" s="41"/>
@@ -3616,18 +3683,8 @@
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
       <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-    </row>
-    <row r="91" spans="1:21">
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="33"/>
       <c r="B91" s="40"/>
       <c r="C91" s="41"/>
@@ -3639,18 +3696,8 @@
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-    </row>
-    <row r="92" spans="1:21">
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="33"/>
       <c r="B92" s="40"/>
       <c r="C92" s="41"/>
@@ -3662,18 +3709,8 @@
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
       <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-    </row>
-    <row r="93" spans="1:21">
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="33"/>
       <c r="B93" s="45"/>
       <c r="C93" s="41"/>
@@ -3685,18 +3722,8 @@
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
       <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-    </row>
-    <row r="94" spans="1:21">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="33"/>
       <c r="B94" s="40"/>
       <c r="C94" s="41"/>
@@ -3708,18 +3735,8 @@
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
       <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-    </row>
-    <row r="95" spans="1:21">
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="33"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -3731,18 +3748,8 @@
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-    </row>
-    <row r="96" spans="1:21">
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="33"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -3754,18 +3761,8 @@
       <c r="I96" s="37"/>
       <c r="J96" s="37"/>
       <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-    </row>
-    <row r="97" spans="1:21">
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="33"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -3777,18 +3774,8 @@
       <c r="I97" s="37"/>
       <c r="J97" s="37"/>
       <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-    </row>
-    <row r="98" spans="1:21">
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="33"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -3800,18 +3787,8 @@
       <c r="I98" s="37"/>
       <c r="J98" s="37"/>
       <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-    </row>
-    <row r="99" spans="1:21">
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="33"/>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
@@ -3822,18 +3799,8 @@
       <c r="I99" s="37"/>
       <c r="J99" s="37"/>
       <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-    </row>
-    <row r="100" spans="1:21">
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="33"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -3845,18 +3812,8 @@
       <c r="I100" s="37"/>
       <c r="J100" s="37"/>
       <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-    </row>
-    <row r="101" spans="1:21">
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="33"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -3868,18 +3825,8 @@
       <c r="I101" s="37"/>
       <c r="J101" s="37"/>
       <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-    </row>
-    <row r="102" spans="1:21">
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="33"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -3891,18 +3838,8 @@
       <c r="I102" s="37"/>
       <c r="J102" s="37"/>
       <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="37"/>
-      <c r="U102" s="37"/>
-    </row>
-    <row r="103" spans="1:21">
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="33"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -3914,18 +3851,8 @@
       <c r="I103" s="37"/>
       <c r="J103" s="37"/>
       <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
-      <c r="S103" s="37"/>
-      <c r="T103" s="37"/>
-      <c r="U103" s="37"/>
-    </row>
-    <row r="104" spans="1:21">
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="33"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -3937,18 +3864,8 @@
       <c r="I104" s="37"/>
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="37"/>
-      <c r="S104" s="37"/>
-      <c r="T104" s="37"/>
-      <c r="U104" s="37"/>
-    </row>
-    <row r="105" spans="1:21">
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -3960,17 +3877,8 @@
       <c r="I105" s="37"/>
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="37"/>
-      <c r="S105" s="37"/>
-      <c r="T105" s="37"/>
-    </row>
-    <row r="106" spans="1:21">
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="38"/>
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
@@ -3982,39 +3890,24 @@
       <c r="I106" s="38"/>
       <c r="J106" s="38"/>
       <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
-      <c r="Q106" s="38"/>
-      <c r="R106" s="38"/>
-      <c r="S106" s="38"/>
-      <c r="T106" s="38"/>
-    </row>
-    <row r="107" spans="1:21">
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:21">
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:21">
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:21">
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1"/>
-      <c r="M111" s="1"/>
-    </row>
-    <row r="112" spans="1:21">
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1"/>
-      <c r="M112" s="1"/>
     </row>
     <row r="113" s="1" customFormat="1"/>
     <row r="114" s="1" customFormat="1"/>
@@ -4074,12 +3967,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2"/>
@@ -4298,23 +4191,23 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="136"/>
+      <c r="D18" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="118"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="2"/>
       <c r="L18" s="1" t="s">
         <v>32</v>
@@ -4324,25 +4217,25 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2"/>
-      <c r="B19" s="77">
+      <c r="B19" s="76">
         <v>100</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="76">
         <v>199</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="76">
         <v>1</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -4355,21 +4248,21 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3"/>
-      <c r="B20" s="79">
+      <c r="B20" s="78">
         <v>200</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="76">
         <v>299</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="G20" s="79">
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="G20" s="78">
         <v>2</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="119"/>
+      <c r="I20" s="2"/>
       <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
@@ -4380,21 +4273,21 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2"/>
-      <c r="B21" s="77">
+      <c r="B21" s="76">
         <v>300</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="76">
         <v>399</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="G21" s="77">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="G21" s="76">
         <v>3</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="2"/>
       <c r="L21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,21 +4298,21 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2"/>
-      <c r="B22" s="79">
+      <c r="B22" s="78">
         <v>400</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="76">
         <v>499</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="G22" s="79">
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="G22" s="78">
         <v>4</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="2"/>
       <c r="L22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4427,21 +4320,21 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2"/>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <v>500</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="76">
         <v>599</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="G23" s="77">
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="G23" s="76">
         <v>5</v>
       </c>
-      <c r="H23" s="77" t="s">
+      <c r="H23" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="2"/>
       <c r="L23" s="1" t="s">
         <v>48</v>
       </c>
@@ -4449,21 +4342,21 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2"/>
-      <c r="B24" s="79">
+      <c r="B24" s="78">
         <v>600</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="76">
         <v>699</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="G24" s="79">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="G24" s="78">
         <v>6</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="2"/>
       <c r="L24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4471,21 +4364,21 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2"/>
-      <c r="B25" s="77">
+      <c r="B25" s="76">
         <v>700</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="76">
         <v>799</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="G25" s="77">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="G25" s="76">
         <v>7</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="2"/>
       <c r="L25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4493,21 +4386,21 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2"/>
-      <c r="B26" s="79">
+      <c r="B26" s="78">
         <v>800</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="76">
         <v>899</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="G26" s="79">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="G26" s="78">
         <v>8</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="2"/>
       <c r="L26" s="1" t="s">
         <v>51</v>
       </c>
@@ -4515,19 +4408,19 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2"/>
-      <c r="B27" s="77">
+      <c r="B27" s="76">
         <v>900</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="76">
         <v>999</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="G27" s="77">
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="G27" s="76">
         <v>9</v>
       </c>
-      <c r="H27" s="77"/>
-      <c r="I27" s="119"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="2"/>
       <c r="K27" s="1" t="s">
         <v>24</v>
       </c>
@@ -4536,25 +4429,25 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2"/>
-      <c r="B28" s="81">
+      <c r="B28" s="80">
         <v>1000</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="80">
         <v>1999</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="78">
         <v>10</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="119"/>
+      <c r="I28" s="2"/>
       <c r="L28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4566,25 +4459,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2"/>
-      <c r="B29" s="83">
+      <c r="B29" s="82">
         <v>2000</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="80">
         <v>2999</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="76">
         <v>11</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="119"/>
+      <c r="I29" s="2"/>
       <c r="L29" s="1" t="s">
         <v>34</v>
       </c>
@@ -4594,25 +4487,25 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2"/>
-      <c r="B30" s="81">
+      <c r="B30" s="80">
         <v>3000</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="80">
         <v>3999</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="78">
         <v>12</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="I30" s="119"/>
+      <c r="I30" s="2"/>
       <c r="L30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4621,19 +4514,19 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="83">
+      <c r="B31" s="82">
         <v>4000</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="80">
         <v>4999</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="G31" s="77">
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="G31" s="76">
         <v>13</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="119"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="2"/>
       <c r="L31" s="1" t="s">
         <v>38</v>
       </c>
@@ -4642,19 +4535,19 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="81">
+      <c r="B32" s="80">
         <v>5000</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="80">
         <v>5999</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="G32" s="79">
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="G32" s="78">
         <v>14</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="119"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="2"/>
       <c r="L32" s="1" t="s">
         <v>36</v>
       </c>
@@ -4663,19 +4556,19 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="83">
+      <c r="B33" s="82">
         <v>6000</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="80">
         <v>6999</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="G33" s="77">
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="G33" s="76">
         <v>15</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="119"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="2"/>
       <c r="L33" s="1" t="s">
         <v>37</v>
       </c>
@@ -4684,473 +4577,464 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="81">
+      <c r="B34" s="80">
         <v>7000</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="80">
         <v>7999</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="G34" s="79">
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="G34" s="78">
         <v>16</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="119"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="83">
+      <c r="B35" s="82">
         <v>8000</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="80">
         <v>8999</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="G35" s="77">
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="G35" s="76">
         <v>17</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="119"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="81">
+      <c r="B36" s="80">
         <v>9000</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="80">
         <v>9999</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="G36" s="79">
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="G36" s="78">
         <v>18</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="119"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="85">
+      <c r="B37" s="84">
         <v>10000</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="84">
         <v>19999</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="76">
         <v>19</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="119"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="85">
+      <c r="B38" s="84">
         <v>20000</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="84">
         <v>29999</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="78">
         <v>20</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="119"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="85">
+      <c r="B39" s="84">
         <v>30000</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="84">
         <v>34999</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="76">
         <v>21</v>
       </c>
-      <c r="H39" s="85"/>
-      <c r="I39" s="119"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="85">
+      <c r="B40" s="84">
         <v>35000</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="84">
         <v>39999</v>
       </c>
-      <c r="D40" s="86" t="s">
+      <c r="D40" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="79">
+      <c r="G40" s="78">
         <v>22</v>
       </c>
-      <c r="H40" s="85"/>
-      <c r="I40" s="119"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="85">
+      <c r="B41" s="84">
         <v>40000</v>
       </c>
-      <c r="C41" s="85">
+      <c r="C41" s="84">
         <v>49999</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="77">
+      <c r="G41" s="76">
         <v>23</v>
       </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="119"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="85">
+      <c r="B42" s="84">
         <v>50000</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="84">
         <v>59999</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="79">
+      <c r="G42" s="78">
         <v>24</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="119"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="85">
+      <c r="B43" s="84">
         <v>60000</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="84">
         <v>69999</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="76">
         <v>25</v>
       </c>
-      <c r="H43" s="85"/>
-      <c r="I43" s="119"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="85">
+      <c r="B44" s="84">
         <v>70000</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="84">
         <v>79999</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="79">
+      <c r="G44" s="78">
         <v>26</v>
       </c>
-      <c r="H44" s="85"/>
-      <c r="I44" s="119"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="85">
+      <c r="B45" s="84">
         <v>80000</v>
       </c>
-      <c r="C45" s="85">
+      <c r="C45" s="84">
         <v>89999</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="76">
         <v>27</v>
       </c>
-      <c r="H45" s="85"/>
-      <c r="I45" s="119"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="85">
+      <c r="B46" s="84">
         <v>90000</v>
       </c>
-      <c r="C46" s="85">
+      <c r="C46" s="84">
         <v>99999</v>
       </c>
-      <c r="D46" s="87" t="s">
+      <c r="D46" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="86" t="s">
+      <c r="E46" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="79">
+      <c r="G46" s="78">
         <v>28</v>
       </c>
-      <c r="H46" s="85"/>
-      <c r="I46" s="119"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="88">
+      <c r="B47" s="87">
         <v>100000</v>
       </c>
-      <c r="C47" s="88">
+      <c r="C47" s="87">
         <v>199999</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="77">
+      <c r="G47" s="76">
         <v>29</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="120"/>
+      <c r="H47" s="87"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="88">
+      <c r="B48" s="87">
         <v>200000</v>
       </c>
-      <c r="C48" s="88">
+      <c r="C48" s="87">
         <v>299999</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="89" t="s">
+      <c r="E48" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="79">
+      <c r="G48" s="78">
         <v>30</v>
       </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="120"/>
+      <c r="H48" s="87"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="88">
+      <c r="B49" s="87">
         <v>300000</v>
       </c>
-      <c r="C49" s="88">
+      <c r="C49" s="87">
         <v>399999</v>
       </c>
-      <c r="D49" s="89" t="s">
+      <c r="D49" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="89" t="s">
+      <c r="E49" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="76">
         <v>31</v>
       </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="120"/>
+      <c r="H49" s="87"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="88">
+      <c r="B50" s="87">
         <v>400000</v>
       </c>
-      <c r="C50" s="88">
+      <c r="C50" s="87">
         <v>499999</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="G50" s="79">
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="G50" s="78">
         <v>32</v>
       </c>
-      <c r="H50" s="88"/>
-      <c r="I50" s="120"/>
+      <c r="H50" s="87"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="88">
+      <c r="B51" s="87">
         <v>500000</v>
       </c>
-      <c r="C51" s="88">
+      <c r="C51" s="87">
         <v>599999</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="G51" s="77">
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="G51" s="76">
         <v>33</v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="120"/>
+      <c r="H51" s="87"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="88">
+      <c r="B52" s="87">
         <v>600000</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="87">
         <v>699999</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="G52" s="79">
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="G52" s="78">
         <v>34</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="120"/>
+      <c r="H52" s="87"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="88">
+      <c r="B53" s="87">
         <v>700000</v>
       </c>
-      <c r="C53" s="88">
+      <c r="C53" s="87">
         <v>799999</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="G53" s="77">
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="G53" s="76">
         <v>35</v>
       </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="120"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="88">
+      <c r="B54" s="87">
         <v>800000</v>
       </c>
-      <c r="C54" s="88">
+      <c r="C54" s="87">
         <v>899999</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="G54" s="79">
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="G54" s="78">
         <v>36</v>
       </c>
-      <c r="H54" s="88"/>
-      <c r="I54" s="120"/>
+      <c r="H54" s="87"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="88">
+      <c r="B55" s="87">
         <v>900000</v>
       </c>
-      <c r="C55" s="88">
+      <c r="C55" s="87">
         <v>999999</v>
       </c>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="G55" s="77">
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="G55" s="76">
         <v>37</v>
       </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="120"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="58" spans="2:17" ht="20.25">
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="G58" s="90" t="s">
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="G58" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C59" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D59" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="91" t="s">
+      <c r="G59" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="H59" s="91" t="s">
+      <c r="H59" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="91" t="s">
+      <c r="I59" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="91" t="s">
+      <c r="J59" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="92">
+      <c r="B60" s="89">
         <v>1</v>
       </c>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="95">
+      <c r="G60" s="92">
         <v>1</v>
       </c>
-      <c r="H60" s="96" t="s">
+      <c r="H60" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="95" t="s">
+      <c r="I60" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="97"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="92">
+      <c r="B61" s="89">
         <v>2</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="94" t="s">
+      <c r="D61" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="94" t="s">
+      <c r="E61" s="91" t="s">
         <v>127</v>
       </c>
       <c r="F61" s="34"/>
-      <c r="G61" s="95">
+      <c r="G61" s="92">
         <v>2</v>
       </c>
-      <c r="H61" s="96" t="s">
+      <c r="H61" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="95"/>
-      <c r="J61" s="98" t="s">
+      <c r="I61" s="92"/>
+      <c r="J61" s="95" t="s">
         <v>128</v>
       </c>
       <c r="K61" s="29"/>
@@ -5162,29 +5046,29 @@
       <c r="Q61" s="29"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="92">
+      <c r="B62" s="89">
         <v>3</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="94" t="s">
+      <c r="D62" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="94" t="s">
+      <c r="E62" s="91" t="s">
         <v>131</v>
       </c>
       <c r="F62" s="34"/>
-      <c r="G62" s="95">
+      <c r="G62" s="92">
         <v>3</v>
       </c>
-      <c r="H62" s="96" t="s">
+      <c r="H62" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="J62" s="99" t="s">
+      <c r="J62" s="96" t="s">
         <v>36</v>
       </c>
       <c r="K62" s="29"/>
@@ -5196,29 +5080,29 @@
       <c r="Q62" s="29"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="92">
+      <c r="B63" s="89">
         <v>4</v>
       </c>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="94" t="s">
+      <c r="D63" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="94" t="s">
+      <c r="E63" s="91" t="s">
         <v>136</v>
       </c>
       <c r="F63" s="34"/>
-      <c r="G63" s="95">
+      <c r="G63" s="92">
         <v>4</v>
       </c>
-      <c r="H63" s="96" t="s">
+      <c r="H63" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="I63" s="99" t="s">
+      <c r="I63" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="J63" s="99" t="s">
+      <c r="J63" s="96" t="s">
         <v>139</v>
       </c>
       <c r="K63" s="29"/>
@@ -5230,29 +5114,29 @@
       <c r="Q63" s="29"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="92">
+      <c r="B64" s="89">
         <v>5</v>
       </c>
-      <c r="C64" s="100" t="s">
+      <c r="C64" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="101" t="s">
+      <c r="D64" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="94" t="s">
+      <c r="E64" s="91" t="s">
         <v>142</v>
       </c>
       <c r="F64" s="34"/>
-      <c r="G64" s="95">
+      <c r="G64" s="92">
         <v>5</v>
       </c>
-      <c r="H64" s="96" t="s">
+      <c r="H64" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="I64" s="102" t="s">
+      <c r="I64" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="J64" s="102" t="s">
+      <c r="J64" s="99" t="s">
         <v>145</v>
       </c>
       <c r="K64" s="29"/>
@@ -5264,29 +5148,29 @@
       <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="2:26">
-      <c r="B65" s="92">
+      <c r="B65" s="89">
         <v>6</v>
       </c>
-      <c r="C65" s="93" t="s">
+      <c r="C65" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="94" t="s">
+      <c r="D65" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="94" t="s">
+      <c r="E65" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="103"/>
-      <c r="G65" s="95">
+      <c r="F65" s="100"/>
+      <c r="G65" s="92">
         <v>6</v>
       </c>
-      <c r="H65" s="96" t="s">
+      <c r="H65" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="I65" s="102" t="s">
+      <c r="I65" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="J65" s="102" t="s">
+      <c r="J65" s="99" t="s">
         <v>151</v>
       </c>
       <c r="K65" s="30"/>
@@ -5298,29 +5182,29 @@
       <c r="Q65" s="30"/>
     </row>
     <row r="66" spans="2:26">
-      <c r="B66" s="92">
+      <c r="B66" s="89">
         <v>7</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="91" t="s">
         <v>154</v>
       </c>
       <c r="F66" s="34"/>
-      <c r="G66" s="104">
+      <c r="G66" s="101">
         <v>7</v>
       </c>
-      <c r="H66" s="96" t="s">
+      <c r="H66" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="I66" s="102" t="s">
+      <c r="I66" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="J66" s="102" t="s">
+      <c r="J66" s="99" t="s">
         <v>157</v>
       </c>
       <c r="K66" s="29"/>
@@ -5332,29 +5216,29 @@
       <c r="Q66" s="29"/>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="92">
+      <c r="B67" s="89">
         <v>8</v>
       </c>
-      <c r="C67" s="93" t="s">
+      <c r="C67" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="D67" s="94" t="s">
+      <c r="D67" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="94" t="s">
+      <c r="E67" s="91" t="s">
         <v>160</v>
       </c>
       <c r="F67" s="34"/>
-      <c r="G67" s="95">
+      <c r="G67" s="92">
         <v>8</v>
       </c>
-      <c r="H67" s="96" t="s">
+      <c r="H67" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="I67" s="102" t="s">
+      <c r="I67" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="J67" s="105" t="s">
+      <c r="J67" s="102" t="s">
         <v>163</v>
       </c>
       <c r="K67" s="29"/>
@@ -5366,16 +5250,16 @@
       <c r="Q67" s="29"/>
     </row>
     <row r="68" spans="2:26">
-      <c r="B68" s="92">
+      <c r="B68" s="89">
         <v>9</v>
       </c>
-      <c r="C68" s="106" t="s">
+      <c r="C68" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="E68" s="94" t="s">
+      <c r="E68" s="91" t="s">
         <v>166</v>
       </c>
       <c r="F68" s="34"/>
@@ -5392,22 +5276,22 @@
       <c r="Q68" s="29"/>
     </row>
     <row r="69" spans="2:26">
-      <c r="B69" s="92">
+      <c r="B69" s="89">
         <v>10</v>
       </c>
-      <c r="C69" s="93" t="s">
+      <c r="C69" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="94" t="s">
+      <c r="D69" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="94" t="s">
+      <c r="E69" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="F69" s="108"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
       <c r="J69" s="31"/>
       <c r="K69" s="31"/>
       <c r="L69" s="31"/>
@@ -5418,16 +5302,16 @@
       <c r="Q69" s="31"/>
     </row>
     <row r="70" spans="2:26">
-      <c r="B70" s="92">
+      <c r="B70" s="89">
         <v>11</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="94" t="s">
+      <c r="D70" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="94" t="s">
+      <c r="E70" s="91" t="s">
         <v>172</v>
       </c>
       <c r="F70" s="34"/>
@@ -5444,16 +5328,16 @@
       <c r="Q70" s="29"/>
     </row>
     <row r="71" spans="2:26">
-      <c r="B71" s="92">
+      <c r="B71" s="89">
         <v>12</v>
       </c>
-      <c r="C71" s="93" t="s">
+      <c r="C71" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="94" t="s">
+      <c r="D71" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="94" t="s">
+      <c r="E71" s="91" t="s">
         <v>175</v>
       </c>
       <c r="F71" s="34"/>
@@ -5470,16 +5354,16 @@
       <c r="Q71" s="29"/>
     </row>
     <row r="72" spans="2:26">
-      <c r="B72" s="92">
+      <c r="B72" s="89">
         <v>13</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="94" t="s">
+      <c r="E72" s="91" t="s">
         <v>178</v>
       </c>
       <c r="F72" s="34"/>
@@ -5496,16 +5380,16 @@
       <c r="Q72" s="29"/>
     </row>
     <row r="73" spans="2:26">
-      <c r="B73" s="92">
+      <c r="B73" s="89">
         <v>14</v>
       </c>
-      <c r="C73" s="93" t="s">
+      <c r="C73" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="94" t="s">
+      <c r="D73" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="94" t="s">
+      <c r="E73" s="91" t="s">
         <v>181</v>
       </c>
       <c r="F73" s="34"/>
@@ -5522,16 +5406,16 @@
       <c r="Q73" s="29"/>
     </row>
     <row r="74" spans="2:26">
-      <c r="B74" s="92">
+      <c r="B74" s="89">
         <v>15</v>
       </c>
-      <c r="C74" s="93" t="s">
+      <c r="C74" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="94" t="s">
+      <c r="D74" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="94" t="s">
+      <c r="E74" s="91" t="s">
         <v>184</v>
       </c>
       <c r="F74" s="34"/>
@@ -5568,31 +5452,31 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:26" ht="20.25">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="90" t="s">
+      <c r="G77" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="137"/>
     </row>
     <row r="78" spans="2:26" ht="17.25">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="91" t="s">
+      <c r="C78" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="91" t="s">
+      <c r="D78" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="91" t="s">
+      <c r="E78" s="54" t="s">
         <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -5604,21 +5488,21 @@
       <c r="I78" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J78" s="110" t="s">
+      <c r="J78" s="107" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:26" ht="17.25">
-      <c r="B79" s="111">
+      <c r="B79" s="108">
         <v>1</v>
       </c>
-      <c r="C79" s="112" t="s">
+      <c r="C79" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="113" t="s">
+      <c r="D79" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="113" t="s">
+      <c r="E79" s="110" t="s">
         <v>186</v>
       </c>
       <c r="G79" s="12">
@@ -5630,7 +5514,7 @@
       <c r="I79" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J79" s="113" t="s">
+      <c r="J79" s="110" t="s">
         <v>189</v>
       </c>
       <c r="K79" s="36"/>
@@ -5651,16 +5535,16 @@
       <c r="Z79" s="36"/>
     </row>
     <row r="80" spans="2:26" ht="17.25">
-      <c r="B80" s="111">
+      <c r="B80" s="108">
         <v>2</v>
       </c>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="113" t="s">
+      <c r="D80" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="113" t="s">
+      <c r="E80" s="110" t="s">
         <v>190</v>
       </c>
       <c r="G80" s="12">
@@ -5672,7 +5556,7 @@
       <c r="I80" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J80" s="113" t="s">
+      <c r="J80" s="110" t="s">
         <v>191</v>
       </c>
       <c r="K80" s="37"/>
@@ -5693,16 +5577,16 @@
       <c r="Z80" s="37"/>
     </row>
     <row r="81" spans="2:26" ht="17.25">
-      <c r="B81" s="111">
+      <c r="B81" s="108">
         <v>3</v>
       </c>
-      <c r="C81" s="114" t="s">
+      <c r="C81" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="113" t="s">
+      <c r="D81" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="113" t="s">
+      <c r="E81" s="110" t="s">
         <v>192</v>
       </c>
       <c r="G81" s="12">
@@ -5714,7 +5598,7 @@
       <c r="I81" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J81" s="113" t="s">
+      <c r="J81" s="110" t="s">
         <v>193</v>
       </c>
       <c r="K81" s="37"/>
@@ -5735,16 +5619,16 @@
       <c r="Z81" s="37"/>
     </row>
     <row r="82" spans="2:26" ht="17.25">
-      <c r="B82" s="111">
+      <c r="B82" s="108">
         <v>4</v>
       </c>
-      <c r="C82" s="114" t="s">
+      <c r="C82" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="115" t="s">
+      <c r="D82" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="113" t="s">
+      <c r="E82" s="110" t="s">
         <v>195</v>
       </c>
       <c r="G82" s="12">
@@ -5756,7 +5640,7 @@
       <c r="I82" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="113" t="s">
+      <c r="J82" s="110" t="s">
         <v>196</v>
       </c>
       <c r="K82" s="37"/>
@@ -5777,16 +5661,16 @@
       <c r="Z82" s="37"/>
     </row>
     <row r="83" spans="2:26" ht="17.25">
-      <c r="B83" s="111">
+      <c r="B83" s="108">
         <v>5</v>
       </c>
-      <c r="C83" s="114" t="s">
+      <c r="C83" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="D83" s="113" t="s">
+      <c r="D83" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="E83" s="113" t="s">
+      <c r="E83" s="110" t="s">
         <v>199</v>
       </c>
       <c r="G83" s="12">
@@ -5798,7 +5682,7 @@
       <c r="I83" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J83" s="113" t="s">
+      <c r="J83" s="110" t="s">
         <v>200</v>
       </c>
       <c r="K83" s="37"/>
@@ -5819,16 +5703,16 @@
       <c r="Z83" s="37"/>
     </row>
     <row r="84" spans="2:26" ht="17.25">
-      <c r="B84" s="111">
+      <c r="B84" s="108">
         <v>6</v>
       </c>
-      <c r="C84" s="114" t="s">
+      <c r="C84" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D84" s="113" t="s">
+      <c r="D84" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="E84" s="113" t="s">
+      <c r="E84" s="110" t="s">
         <v>203</v>
       </c>
       <c r="G84" s="12">
@@ -5840,7 +5724,7 @@
       <c r="I84" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="J84" s="113" t="s">
+      <c r="J84" s="110" t="s">
         <v>206</v>
       </c>
       <c r="K84" s="37"/>
@@ -5861,16 +5745,16 @@
       <c r="Z84" s="37"/>
     </row>
     <row r="85" spans="2:26" ht="17.25">
-      <c r="B85" s="111">
+      <c r="B85" s="108">
         <v>7</v>
       </c>
-      <c r="C85" s="114" t="s">
+      <c r="C85" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="113" t="s">
+      <c r="D85" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="E85" s="113" t="s">
+      <c r="E85" s="110" t="s">
         <v>209</v>
       </c>
       <c r="G85" s="12">
@@ -5882,7 +5766,7 @@
       <c r="I85" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="J85" s="113" t="s">
+      <c r="J85" s="110" t="s">
         <v>212</v>
       </c>
       <c r="K85" s="37"/>
@@ -5903,16 +5787,16 @@
       <c r="Z85" s="37"/>
     </row>
     <row r="86" spans="2:26" ht="17.25">
-      <c r="B86" s="111">
+      <c r="B86" s="108">
         <v>8</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="116" t="s">
+      <c r="D86" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="113" t="s">
+      <c r="E86" s="110" t="s">
         <v>215</v>
       </c>
       <c r="G86" s="12">
@@ -5924,7 +5808,7 @@
       <c r="I86" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="J86" s="113" t="s">
+      <c r="J86" s="110" t="s">
         <v>217</v>
       </c>
       <c r="K86" s="37"/>
@@ -5945,16 +5829,16 @@
       <c r="Z86" s="37"/>
     </row>
     <row r="87" spans="2:26" ht="17.25">
-      <c r="B87" s="111">
+      <c r="B87" s="108">
         <v>9</v>
       </c>
-      <c r="C87" s="114" t="s">
+      <c r="C87" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="D87" s="113" t="s">
+      <c r="D87" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="E87" s="113" t="s">
+      <c r="E87" s="110" t="s">
         <v>220</v>
       </c>
       <c r="G87" s="12">
@@ -5966,7 +5850,7 @@
       <c r="I87" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="J87" s="113" t="s">
+      <c r="J87" s="110" t="s">
         <v>222</v>
       </c>
       <c r="K87" s="37"/>
@@ -5987,16 +5871,16 @@
       <c r="Z87" s="37"/>
     </row>
     <row r="88" spans="2:26" ht="17.25">
-      <c r="B88" s="111">
+      <c r="B88" s="108">
         <v>10</v>
       </c>
-      <c r="C88" s="114" t="s">
+      <c r="C88" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="113" t="s">
+      <c r="D88" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="113" t="s">
+      <c r="E88" s="110" t="s">
         <v>225</v>
       </c>
       <c r="G88" s="12">
@@ -6008,7 +5892,7 @@
       <c r="I88" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="J88" s="113" t="s">
+      <c r="J88" s="110" t="s">
         <v>222</v>
       </c>
       <c r="K88" s="37"/>
@@ -6029,16 +5913,16 @@
       <c r="Z88" s="37"/>
     </row>
     <row r="89" spans="2:26" ht="17.25">
-      <c r="B89" s="111">
+      <c r="B89" s="108">
         <v>11</v>
       </c>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="113" t="s">
+      <c r="D89" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="E89" s="113" t="s">
+      <c r="E89" s="110" t="s">
         <v>229</v>
       </c>
       <c r="G89" s="12">
@@ -6050,7 +5934,7 @@
       <c r="I89" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="J89" s="113" t="s">
+      <c r="J89" s="110" t="s">
         <v>232</v>
       </c>
       <c r="K89" s="37"/>
@@ -6071,16 +5955,16 @@
       <c r="Z89" s="37"/>
     </row>
     <row r="90" spans="2:26" ht="17.25">
-      <c r="B90" s="111">
+      <c r="B90" s="108">
         <v>12</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="D90" s="113" t="s">
+      <c r="D90" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="E90" s="113" t="s">
+      <c r="E90" s="110" t="s">
         <v>235</v>
       </c>
       <c r="G90" s="12">
@@ -6092,7 +5976,7 @@
       <c r="I90" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="J90" s="113" t="s">
+      <c r="J90" s="110" t="s">
         <v>238</v>
       </c>
       <c r="K90" s="37"/>
@@ -6113,16 +5997,16 @@
       <c r="Z90" s="37"/>
     </row>
     <row r="91" spans="2:26" ht="17.25">
-      <c r="B91" s="111">
+      <c r="B91" s="108">
         <v>13</v>
       </c>
-      <c r="C91" s="114" t="s">
+      <c r="C91" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="D91" s="113" t="s">
+      <c r="D91" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="E91" s="113" t="s">
+      <c r="E91" s="110" t="s">
         <v>241</v>
       </c>
       <c r="G91" s="12">
@@ -6134,7 +6018,7 @@
       <c r="I91" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="J91" s="113" t="s">
+      <c r="J91" s="110" t="s">
         <v>244</v>
       </c>
       <c r="K91" s="37"/>
@@ -6155,16 +6039,16 @@
       <c r="Z91" s="37"/>
     </row>
     <row r="92" spans="2:26" ht="17.25">
-      <c r="B92" s="111">
+      <c r="B92" s="108">
         <v>14</v>
       </c>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="117" t="s">
+      <c r="D92" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="E92" s="113" t="s">
+      <c r="E92" s="110" t="s">
         <v>247</v>
       </c>
       <c r="G92" s="12">
@@ -6176,7 +6060,7 @@
       <c r="I92" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="J92" s="113" t="s">
+      <c r="J92" s="110" t="s">
         <v>250</v>
       </c>
       <c r="K92" s="37"/>
@@ -6197,16 +6081,16 @@
       <c r="Z92" s="37"/>
     </row>
     <row r="93" spans="2:26" ht="17.25">
-      <c r="B93" s="111">
+      <c r="B93" s="108">
         <v>15</v>
       </c>
-      <c r="C93" s="114" t="s">
+      <c r="C93" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="D93" s="117" t="s">
+      <c r="D93" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="E93" s="113" t="s">
+      <c r="E93" s="110" t="s">
         <v>253</v>
       </c>
       <c r="G93" s="12">
@@ -6218,7 +6102,7 @@
       <c r="I93" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="J93" s="113" t="s">
+      <c r="J93" s="110" t="s">
         <v>256</v>
       </c>
       <c r="K93" s="37"/>
@@ -6239,16 +6123,16 @@
       <c r="Z93" s="37"/>
     </row>
     <row r="94" spans="2:26" ht="17.25">
-      <c r="B94" s="111">
+      <c r="B94" s="108">
         <v>16</v>
       </c>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="117" t="s">
+      <c r="D94" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="113" t="s">
+      <c r="E94" s="110" t="s">
         <v>257</v>
       </c>
       <c r="G94" s="12">
@@ -6260,7 +6144,7 @@
       <c r="I94" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="J94" s="113" t="s">
+      <c r="J94" s="110" t="s">
         <v>260</v>
       </c>
       <c r="K94" s="37"/>
@@ -6281,16 +6165,16 @@
       <c r="Z94" s="37"/>
     </row>
     <row r="95" spans="2:26" ht="17.25">
-      <c r="B95" s="111">
+      <c r="B95" s="108">
         <v>17</v>
       </c>
-      <c r="C95" s="114" t="s">
+      <c r="C95" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="117" t="s">
+      <c r="D95" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="E95" s="117" t="s">
+      <c r="E95" s="114" t="s">
         <v>262</v>
       </c>
       <c r="G95" s="12">
@@ -6302,7 +6186,7 @@
       <c r="I95" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J95" s="113" t="s">
+      <c r="J95" s="110" t="s">
         <v>257</v>
       </c>
       <c r="K95" s="37"/>
@@ -6323,16 +6207,16 @@
       <c r="Z95" s="37"/>
     </row>
     <row r="96" spans="2:26" ht="17.25">
-      <c r="B96" s="111">
+      <c r="B96" s="108">
         <v>18</v>
       </c>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="117" t="s">
+      <c r="D96" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="117" t="s">
+      <c r="E96" s="114" t="s">
         <v>264</v>
       </c>
       <c r="G96" s="12">
@@ -6344,7 +6228,7 @@
       <c r="I96" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="117" t="s">
+      <c r="J96" s="114" t="s">
         <v>265</v>
       </c>
       <c r="K96" s="37"/>
@@ -6376,7 +6260,7 @@
       <c r="I97" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J97" s="117" t="s">
+      <c r="J97" s="114" t="s">
         <v>267</v>
       </c>
       <c r="K97" s="37"/>
@@ -6498,6 +6382,430 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CAC01A-F0CD-4616-A33E-C588FE3A08B5}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="127">
+        <v>1</v>
+      </c>
+      <c r="D9" s="129">
+        <v>0</v>
+      </c>
+      <c r="E9" s="132"/>
+      <c r="F9" s="127">
+        <v>500</v>
+      </c>
+      <c r="G9" s="132"/>
+      <c r="H9" s="127">
+        <v>500</v>
+      </c>
+      <c r="I9" s="127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="128">
+        <v>1</v>
+      </c>
+      <c r="D10" s="130">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="128">
+        <v>1</v>
+      </c>
+      <c r="D11" s="130">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128">
+        <v>1</v>
+      </c>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128">
+        <v>1</v>
+      </c>
+      <c r="I11" s="128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="128">
+        <v>1</v>
+      </c>
+      <c r="D12" s="130">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="128">
+        <v>1</v>
+      </c>
+      <c r="D13" s="130">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128">
+        <v>1</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128">
+        <v>1</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="128">
+        <v>1</v>
+      </c>
+      <c r="D14" s="130">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128">
+        <v>100</v>
+      </c>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128">
+        <v>100</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="128">
+        <v>1</v>
+      </c>
+      <c r="D15" s="130">
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128">
+        <v>2</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128">
+        <v>2</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="128">
+        <v>1</v>
+      </c>
+      <c r="D16" s="130">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128">
+        <v>5</v>
+      </c>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128">
+        <v>5</v>
+      </c>
+      <c r="I16" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="128">
+        <v>1</v>
+      </c>
+      <c r="D17" s="130">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128">
+        <v>1</v>
+      </c>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128">
+        <v>1</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="128">
+        <v>1</v>
+      </c>
+      <c r="D18" s="130">
+        <v>0.1875</v>
+      </c>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128">
+        <v>5</v>
+      </c>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128">
+        <v>5</v>
+      </c>
+      <c r="I18" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="128">
+        <v>1</v>
+      </c>
+      <c r="D19" s="130">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128">
+        <v>1</v>
+      </c>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128">
+        <v>1</v>
+      </c>
+      <c r="I19" s="128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="128">
+        <v>1</v>
+      </c>
+      <c r="D20" s="130">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128">
+        <v>5</v>
+      </c>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128">
+        <v>5</v>
+      </c>
+      <c r="I20" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="128">
+        <v>1</v>
+      </c>
+      <c r="D21" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128">
+        <v>5</v>
+      </c>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128">
+        <v>5</v>
+      </c>
+      <c r="I21" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="128">
+        <v>1</v>
+      </c>
+      <c r="D22" s="130">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128">
+        <v>5</v>
+      </c>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128">
+        <v>5</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="128">
+        <v>1</v>
+      </c>
+      <c r="D23" s="130">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128">
+        <v>1</v>
+      </c>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128">
+        <v>1</v>
+      </c>
+      <c r="I23" s="128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="128">
+        <v>1</v>
+      </c>
+      <c r="D24" s="130">
+        <v>0.3125</v>
+      </c>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128">
+        <v>5</v>
+      </c>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128">
+        <v>5</v>
+      </c>
+      <c r="I24" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="128">
+        <v>1</v>
+      </c>
+      <c r="D25" s="130">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128">
+        <v>1</v>
+      </c>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128">
+        <v>1</v>
+      </c>
+      <c r="I25" s="128" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462EFC5-EC71-4207-BB56-2CFCCE10914B}">
   <dimension ref="A1:O67"/>
   <sheetViews>
@@ -6556,13 +6864,13 @@
       <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" s="24" customFormat="1" ht="16.5">
-      <c r="A2" s="121"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="51" t="s">
@@ -6574,8 +6882,8 @@
       <c r="H2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -6583,7 +6891,7 @@
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1" ht="33">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="121" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="53" t="s">
@@ -6598,10 +6906,10 @@
       <c r="E3" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="122" t="s">
         <v>271</v>
       </c>
       <c r="H3" s="51" t="s">
@@ -6610,7 +6918,7 @@
       <c r="I3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="128"/>
+      <c r="J3" s="123"/>
       <c r="K3" s="20"/>
       <c r="L3" s="21"/>
       <c r="M3" s="20"/>
@@ -6618,10 +6926,10 @@
       <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" s="48" customFormat="1" ht="16.5">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="124" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="51" t="s">
@@ -6633,10 +6941,10 @@
       <c r="E4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="125" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="51" t="s">
@@ -6645,7 +6953,7 @@
       <c r="I4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="131"/>
+      <c r="J4" s="126"/>
       <c r="K4" s="50"/>
       <c r="L4" s="49"/>
       <c r="M4" s="50"/>
@@ -6988,430 +7296,6 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:D106" xr:uid="{B0F52189-3DC1-44EE-9D89-FED0F29BD3A8}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CAC01A-F0CD-4616-A33E-C588FE3A08B5}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" s="139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="132">
-        <v>1</v>
-      </c>
-      <c r="D9" s="134">
-        <v>0</v>
-      </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="132">
-        <v>500</v>
-      </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="132">
-        <v>500</v>
-      </c>
-      <c r="I9" s="132" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="133">
-        <v>1</v>
-      </c>
-      <c r="D10" s="135">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="133" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" s="133">
-        <v>1</v>
-      </c>
-      <c r="D11" s="135">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133">
-        <v>1</v>
-      </c>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133">
-        <v>1</v>
-      </c>
-      <c r="I11" s="133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="133">
-        <v>1</v>
-      </c>
-      <c r="D12" s="135">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="133">
-        <v>1</v>
-      </c>
-      <c r="D13" s="135">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133">
-        <v>1</v>
-      </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133">
-        <v>1</v>
-      </c>
-      <c r="I13" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="133">
-        <v>1</v>
-      </c>
-      <c r="D14" s="135">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133">
-        <v>100</v>
-      </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133">
-        <v>100</v>
-      </c>
-      <c r="I14" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="133">
-        <v>1</v>
-      </c>
-      <c r="D15" s="135">
-        <v>0.125</v>
-      </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133">
-        <v>2</v>
-      </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133">
-        <v>2</v>
-      </c>
-      <c r="I15" s="133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="C16" s="133">
-        <v>1</v>
-      </c>
-      <c r="D16" s="135">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133">
-        <v>5</v>
-      </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133">
-        <v>5</v>
-      </c>
-      <c r="I16" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="133">
-        <v>1</v>
-      </c>
-      <c r="D17" s="135">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133">
-        <v>1</v>
-      </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133">
-        <v>1</v>
-      </c>
-      <c r="I17" s="133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="133">
-        <v>1</v>
-      </c>
-      <c r="D18" s="135">
-        <v>0.1875</v>
-      </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133">
-        <v>5</v>
-      </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133">
-        <v>5</v>
-      </c>
-      <c r="I18" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="133">
-        <v>1</v>
-      </c>
-      <c r="D19" s="135">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133">
-        <v>1</v>
-      </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133">
-        <v>1</v>
-      </c>
-      <c r="I19" s="133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="133">
-        <v>1</v>
-      </c>
-      <c r="D20" s="135">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133">
-        <v>5</v>
-      </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133">
-        <v>5</v>
-      </c>
-      <c r="I20" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="133">
-        <v>1</v>
-      </c>
-      <c r="D21" s="135">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133">
-        <v>5</v>
-      </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133">
-        <v>5</v>
-      </c>
-      <c r="I21" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="133">
-        <v>1</v>
-      </c>
-      <c r="D22" s="135">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133">
-        <v>5</v>
-      </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133">
-        <v>5</v>
-      </c>
-      <c r="I22" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="133">
-        <v>1</v>
-      </c>
-      <c r="D23" s="135">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133">
-        <v>1</v>
-      </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133">
-        <v>1</v>
-      </c>
-      <c r="I23" s="133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="133">
-        <v>1</v>
-      </c>
-      <c r="D24" s="135">
-        <v>0.3125</v>
-      </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133">
-        <v>5</v>
-      </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133">
-        <v>5</v>
-      </c>
-      <c r="I24" s="133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="133">
-        <v>1</v>
-      </c>
-      <c r="D25" s="135">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133">
-        <v>1</v>
-      </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133">
-        <v>1</v>
-      </c>
-      <c r="I25" s="133" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
